--- a/data/02_intermediate/cleaned_Axiom_songs.xlsx
+++ b/data/02_intermediate/cleaned_Axiom_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Her father says, she has to have a name Not the same as her mum's, but a name just the same A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl We'll show her the dress that she'll wear With the gold flowing hair that nature provided A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl A little ray of sunshine I want to know if you think she looks good in the pink Her grandma has bought her, our own little daughter She can make you feel good She can make you feel that it's all worthwhile Only by her smile Only by her smile You might also like Have you noticed she's just like her father I think that I'd rather her hair was much darker A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl She can make you feel good And she can make you feel that it's all worthwhile Only by her smile Only by her smile Only by her smile Oh my little ray of sunshine Only by her smile Only by her smile Only by her smile Only by her smile Only by her smile</t>
+          <t>Her father says, she has to have a name Not the same as her mum's, but a name just the same A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl We'll show her the dress that she'll wear With the gold flowing hair that nature provided A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl A little ray of sunshine I want to know if you think she looks good in the pink Her grandma has bought her, our own little daughter She can make you feel good She can make you feel that it's all worthwhile Only by her smile Only by her smile Have you noticed she's just like her father I think that I'd rather her hair was much darker A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl She can make you feel good And she can make you feel that it's all worthwhile Only by her smile Only by her smile Only by her smile Oh my little ray of sunshine Only by her smile Only by her smile Only by her smile Only by her smile Only by her smile</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ooh ooh ooh ooh Ooh ooh ooh ooh If General MacAllister gave up the wars And all of the people went back to their chores Then all the King's horses and all the Kings men Could go home If all of the people were on the same side There'd be no need to run, there'd be no need to hide And all of us here in our grey tattered coats Could go home If youd just listen Sir once again To the reasons of one of your men If you make all these things come to pass Then I could lay on Arkansas grass Home, home, goin' alone To the sound of the military brass Home, home, lovers alone Layin' on Arkansas grass Once again Ooh ooh ooh ooh Ooh ooh ooh ooh You might also likeSo gaily we marched with the grey and red To lick'em first time like the good General said With nary a thought that a so very few would go home If it weren't so wrong for a soldier like me To throw down his gun and to run to be free Then all of us here with the fear in our eyes Would go home If you'd just listen Sir once again To the reasons of one of your men If you make all these things come to pass I could lay on Arkansas grass Home, home, goin' along To the sound of the military brass Home, home, lovers alone Lay on Arkansas grass Once again Layin' on Arkansas grass Layin on Arkansas grass Layin on Arkansas grass Layin' on Arkansas grass Layin on Arkansas grass Layin' on Arkansas grass Layin' on Arkansas grass Home, home, lovers alone Layin' on Arkansas grass</t>
+          <t>Ooh ooh ooh ooh Ooh ooh ooh ooh If General MacAllister gave up the wars And all of the people went back to their chores Then all the King's horses and all the Kings men Could go home If all of the people were on the same side There'd be no need to run, there'd be no need to hide And all of us here in our grey tattered coats Could go home If youd just listen Sir once again To the reasons of one of your men If you make all these things come to pass Then I could lay on Arkansas grass Home, home, goin' alone To the sound of the military brass Home, home, lovers alone Layin' on Arkansas grass Once again Ooh ooh ooh ooh Ooh ooh ooh ooh So gaily we marched with the grey and red To lick'em first time like the good General said With nary a thought that a so very few would go home If it weren't so wrong for a soldier like me To throw down his gun and to run to be free Then all of us here with the fear in our eyes Would go home If you'd just listen Sir once again To the reasons of one of your men If you make all these things come to pass I could lay on Arkansas grass Home, home, goin' along To the sound of the military brass Home, home, lovers alone Lay on Arkansas grass Once again Layin' on Arkansas grass Layin on Arkansas grass Layin on Arkansas grass Layin' on Arkansas grass Layin on Arkansas grass Layin' on Arkansas grass Layin' on Arkansas grass Home, home, lovers alone Layin' on Arkansas grass</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Axiom_songs.xlsx
+++ b/data/02_intermediate/cleaned_Axiom_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>GeniusName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lyrics</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GeniusName.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GeniusName.2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GeniusName.3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Artist</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Lyrics</t>
         </is>
       </c>
     </row>
@@ -458,12 +478,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A Little Ray Of Sunshine</t>
+          <t>1+1=-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Her father says, she has to have a name Not the same as her mum's, but a name just the same A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl We'll show her the dress that she'll wear With the gold flowing hair that nature provided A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl A little ray of sunshine I want to know if you think she looks good in the pink Her grandma has bought her, our own little daughter She can make you feel good She can make you feel that it's all worthwhile Only by her smile Only by her smile Have you noticed she's just like her father I think that I'd rather her hair was much darker A little ray of sunshine has come into the world A little ray of sunshine in the shape of a girl She can make you feel good And she can make you feel that it's all worthwhile Only by her smile Only by her smile Only by her smile Oh my little ray of sunshine Only by her smile Only by her smile Only by her smile Only by her smile Only by her smile</t>
+          <t>Les factures, les loyers, machin... j'sais pas, moi ça m'fait peur Qu'est-ce qui t'fait peur, tu veux parler d'la peur d'l'avenir, machin ou quoi et tout? Bah ouais, j'ai peur de l'avenir. J'ai peur de l'avenir Ben, c'est quoi l'problème? Pourquoi on s'engueule tout l'temps? Tu me dis qu'la vie est incertaine, t'as peur de demain Tu tiens ton ventre et la vie entre tes deux mains T'as peur du manque de sous et du monde de demain Tu crois même plus en nous, un plus un égal plus rien Bébé dis-moi tu t'rappelles les débuts de notre histoire Tes cheveux d'or, ton sourire, qui me donnaient de l'espoir Ce monde n'était plus si nul, j'avais envie d'y croire Je sais ça peut paraître ridicule voire dérisoire Bébé tu sais pour moi, c'était déjà une victoire Sur les préjugés, la connerie des gens, le monde et l'Histoire J'avais l'impression de réussir malgré tous mes déboires Mon sens de vie c'était ça, l'avenir était à l'espoir Bébé je sais qu'on n'est pas du même milieu, ça reprend le dessus Tu me parles comme si j'étais un vulgaire, vulgaire inconnu T'attendais pas p't-être trop de la vie, t'as l'air, t'as l'air si déçue On aimait nos différences, mais déjà j'vois qu'tu les aimes plus OK, t'es blanche et moi j'suis bronzé OK, t'es riche et moi j'suis paumé OK, j'suis croyant et toi t'es athée Tu sais bébé, personne choisit où il naît Tu me dis qu'la vie est incertaine, t'as peur de demain Tu tiens ton ventre et la vie entre tes deux mains T'as peur du manque de sous et du monde de demain Tu crois même plus en nous, un plus un égal plus rien Tu me dis que la vie est incertaine, t'as peur de demain Tu tiens ton ventre et la vie entre tes deux mains T'as peur du manque de sous et du monde de demain Tu crois même plus en nous, un plus un égal moins un Bébé tu sais qu'il y a très peu de monde qui sait réellement qui j'suis C'que j'pense au fond d'moi et quel est mon sens de vie C'que j'ai dû surmonter pour être là où j'en suis Avant d'te rencontrer, pour moi y avait que la survie Moi j'suis qu'un fils de pauvre que la vie a marqué C'était déjà un exploit pour moi de m'être accroché tu sais J'prends c'que la vie m'offre car je lui ai pardonné Depuis qu't'es rentrée dans ma vie, c'est c'que j'appelais l'amour vrai Bébé la vie c'est pas un film au scénario parfait À deux, à trois ou plus, avec toi j'étais prêt à l'affronter, tu sais Mais plus je t'entends et plus je m'y perds, je perds mes repères Alors que dans ma chair, je me sentais de plus en plus père OK t'es responsable et moi je ne l'suis pas OK tu taffes et moi je n'taffe pas OK je rêve et toi tu n'rêves pas Si j'comprends bien pour toi y a pas d'choix Tu me dis qu'la vie est incertaine, t'as peur de demain Tu tiens ton ventre et la vie entre tes deux mains T'as peur du manque de sous et du monde de demain Tu crois même plus en nous, un plus un égal plus rien Tu me dis que la vie est incertaine, t'as peur de demain Tu tiens ton ventre et la vie entre tes deux mains T'as peur du manque de sous et du monde de demain Tu crois même plus en nous, un plus un égal moins un Bébé, tu n'étais pas un coup d'foudre, moi j't'avais choisie J'avais déjà remercié le Ciel d'avoir croisé ta vie Un seul de tes mots me relevait quand ça n'allait pas Car en toi j'avais confiance et en la vie j'avais foi Bébé, j'arrive pas à comprendre ce qui s'est passé Pourquoi t'as autant stressé, pourquoi t'as voulu me blesser Même si t'avais peur de l'avenir, l'amour aurait dû suffire A te dire qu'on serait à deux dans le meilleur comme dans le pire Bébé, j'm'excuse d'avoir haussé la voix Mais j'ai très vite compris ce que tu n'disais pas T'es polluée par le monde et ses lois T'as refusé, rejeté un de nos choix OK, je n'suis pas ci, OK je n'suis pas ça OK, je n'fais pas ci, OK je n'fais pas ça Ok t'inquiète, je vais m'arrêter Vu que tu veux avorter Tu me dis qu'la vie est incertaine, t'as peur de demain Tu tiens ton ventre et la vie entre tes deux mains T'as peur du manque de sous et du monde de demain Tu crois même plus en nous, un plus un égal plus rien Tu me dis que la vie est incertaine, t'as peur de demain Tu tiens ton ventre et la vie entre tes deux mains T'as peur du manque de sous et du monde de demain Tu crois même plus en nous, un plus un égal moins un</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Axiom</t>
         </is>
       </c>
     </row>
@@ -475,12 +515,1216 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arkansas Grass</t>
+          <t>Aaax’</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ooh ooh ooh ooh Ooh ooh ooh ooh If General MacAllister gave up the wars And all of the people went back to their chores Then all the King's horses and all the Kings men Could go home If all of the people were on the same side There'd be no need to run, there'd be no need to hide And all of us here in our grey tattered coats Could go home If youd just listen Sir once again To the reasons of one of your men If you make all these things come to pass Then I could lay on Arkansas grass Home, home, goin' alone To the sound of the military brass Home, home, lovers alone Layin' on Arkansas grass Once again Ooh ooh ooh ooh Ooh ooh ooh ooh So gaily we marched with the grey and red To lick'em first time like the good General said With nary a thought that a so very few would go home If it weren't so wrong for a soldier like me To throw down his gun and to run to be free Then all of us here with the fear in our eyes Would go home If you'd just listen Sir once again To the reasons of one of your men If you make all these things come to pass I could lay on Arkansas grass Home, home, goin' along To the sound of the military brass Home, home, lovers alone Lay on Arkansas grass Once again Layin' on Arkansas grass Layin on Arkansas grass Layin on Arkansas grass Layin' on Arkansas grass Layin on Arkansas grass Layin' on Arkansas grass Layin' on Arkansas grass Home, home, lovers alone Layin' on Arkansas grass</t>
+          <t>Ouais Arbi, c'est l'retour du négro des sables Bledkick, Aaax, bim bim! A-a-a-a-a-Aaax' A-a-a-a-a-Aaax' A-a-a-a-a-Aaax' C'est le retour de la terreur, l'enfant terrible, le plieur De Présidents, monte le son, la révolte est dans ton player Tu m'as vu sur le 20 heures défendre les casseurs À l'heure où tout le monde fermait sa gueule devant la gueule de l'empereur Ma mission n'est pas qu'artistique, ma cité, ma logistique T'étonne pas si aucune radio jouait ma musique Robin des Renois, des Rebeus avec le MIB, AC le feu Les Don Quichotte, et et et tous les mouvements de gueux Bibibibibi biatch! Il vaudrait mieux parler de sexe et de fric Que d'éveiller les nôtres à la politique Bibibibibi biatch! Ton rap game on s'en bat les glaouis Ici c'est la France c'est pas l'Amérique Ok Ok Ok Mcherfine, tu veux mon nom? A-a-a-a-Ax'! Axiom l'épine dans l'talon Ax! Çui qui, çui qui gène Ax! L'in, l'in, l'indigène Ax! Çui qui, çui qui gène Ax! L'indigène A-a-a-a-a-Aaax' A-a-a-a-a-Aaax' A-a-a-a-a-Aaax' J'ai plus de quinze ans dans ce biz, c'est un biz suicidaire Entre les rhadars, les méprises, les langues de putes et les vipères Les bâtards t'font la bise, te salissent par derrière Tandis qu'leurs femmes rêvent de toi comme du Sheitan dans une clairière J'te parle même pas des stars-croqueuses Avec leurs strings dès qu't'as le buzz Ça joue les miss, c'est que des gueuses! Des rhenzet bien malheureuses Et les faux managers qui jouent les killers Qui te polluent ton air, allez niquer vos mères! Dé-dé-dé-dé-dégage! Me saoule pas avec tes faux plans T'as pas d'argent mais moi je dois nourrir mon équipe Dé-dé-dé-dé-dégage! Me saoule pas, c'est pas parce que j'suis militant Que j'ai envie d'faire toutes les dates gratuites Ok Ok Ok Mcherfine, tu veux mon nom? A-a-a-a-Ax'! Axiom l'épine dans l'talon Ax! Çui qui, çui qui gène Ax! L'in, l'in, l'indigène Ax! Çui qui, çui qui gène Ax! L'indigène A-a-a-a-a-Aaax' A-a-a-a-a-Aaax' A-a-a-a-a-Aaax' Tu reconnais bien là le son de là-haut Le son de la Norside, le son des clandos Lille Roubaix Tourcoing, la zone des bédos On a grandi avec les branques, la Brinks et les braquos Non non non non non! On fait pas l'apologie du crime Chez nous nous nous, le vrai bonhomme est celui qui trime Nord Nord Nord Nord Nord, banlieues ouvrières pleines de miskines Gare à ta mère, ta race, si tu sous-estimes Nord Nord Nord Nord Norside, bim bim! Le son du 59, entre Paris et Amsterdam, c'est du bledkick Nord Nord Nord Nord Norside, bim bim! Axiom aux manettes, Starl'afh on va s'la faire à la maghrébine! Ok Ok Ok Mcherfine, tu veux mon nom? A-a-a-a-Ax'! Axiom l'épine dans l'talon Ax! Çui qui, çui qui gène Ax! L'in, l'in, l'indigène Ax! Çui qui, çui qui gène Ax! L'indigène A-a-a-a-a-Aaax' A-a-a-a-a-Aaax' A-a-a-a-a-Aaax'</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Woooh! C'est l'arrivée du visage bronzé, la peau de sable! Où sont vos mains maintenant ? Sont-elles en l'air maintenant? Hoche la tête, crie son nom Axiom ! T'es toujours là maintenant ? C'est qu't'as compris maintenant Il débarque, crie son nom Axiom ! C'est Hicham pour les intimes, berbère nord-africain Si tu kiffes, vas-y fume, c'est du bon marocain Négro des sables comme disent les colons américains Si tu graves pas mon disque, on évitera tout baratin Moi j'sors pas d'la Star Ac' mais j'viens casser la baraque J'veux qu'Maman soit fière, t'es pas content ahoud l'karak 70.5 kilos de rime darling C'est d'la pure, sucrée, sucrée comme la nectarine Rien à foutre de la couleur de ton string Moi j'suis sincère même derrière mes bling-bling Autodidacte, j'fais mon son sur synthé ou échantillon Lève la main en l'air si t'as compris le sens de mes postillons Moi c'que j'kiffe c'est brûler la scène Faire péter le son et que les micros larsennent Sexy, sexy, sexy basané J'en pose une pour les miens et les condamnés Où sont vos mains maintenant ? Sont-elles en l'air maintenant? Hoche la tête, crie son nom Axiom ! T'es toujours là maintenant ? C'est qu't'as compris maintenant Il débarque, crie son nom Axiom ! À une lettre près, ça donnerait action Axiom, une vérité qui n'a pas besoin d'démonstration Sur scène j'sue comme au hammam Speed dans la life, j'aime les textes qui font rhemen Ils veulent le monde sans nous Dans nos esprits ils sèment le flou On n'a même pas les clous Mais au bout, au bout, au bout, et au bout, au bout, on tiendra debout J'parle aux courageux et aux plus veules À ceux qui en veulent À ceux qui veulent du changement mais qui s'croient seuls J'aime voir les sourires sur les gueules Eh mec, range ton gun! J'veux voir bouger les girls Cette scène, on pourra la burn! Allez debout! Allez nodo! Personne viendra nous aider, la misère a déjà bon dos Tio, sortons de nos préaux On va monter au créneau Le futur c'est nous, voilà mon crédo Où sont vos mains maintenant ? Sont-elles en l'air maintenant? Hoche la tête, crie son nom Axiom ! T'es toujours là maintenant ? C'est qu't'as compris maintenant Il débarque, crie son nom Axiom ! Axiom, Mental Kombat, Kaméa, Kheper, DJ Slim, M.A.P., C2P, Daddy C'est l'Axiom Sand Sand Nigger Où sont vos mains maintenant ? Sont-elles en l'air maintenant? Hoche la tête, crie son nom Axiom ! T'es toujours là maintenant ? C'est qu't'as compris maintenant Il débarque, crie son nom Axiom !</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Axiom aka Hicham</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Axiom, aka Hicham Du vrai du sahr, dans la cité du drame Axiom, aka Hicham Entre les gifles des flics et les grands frères dans la came Axiom, aka Hicham Dans ma musique y a ma rage, ma souffrance et mes larmes Axiom, aka Hicham Malgré les tentations j'ai jamais vendu mon âme Je suis né le dernier jour des capricornes D'après ce qu'on m'a dit, ce jour-là il pleuvait des cordes Tout le monde s'accorde, c'était le zoo, j'ai grandi dans la zone Au milieu des destins brisés, des emmerdes qui te mordent Et tandis que les gosses de riches sniffaient leur cocaïne J'ai vu les grands frères mourir dans les bras de l'héroïne Les années 80 ont été le théâtre du spleen Bien que né dans la déprime, mon but juste rester clean Notre terrain de football plein d'seringues au sol Des coups de pute, des coups de schlass des coups d'gun, des coups d'bol Faire mine de rien une fois à l'école Conscient de venir d'un monde où le roi s'appelle ras-le-bol On refaisait le monde depuis les sous-sols et les caves Beaucoup, beaucoup ont fini, fini en épaves Blessé, ça m'a pas empêché de devenir un homme M'en sortir vivant, voilà mon fabuleux destin d'Axiom Axiom, aka Hicham Du vrai du sahr, dans la cité du drame Axiom, aka Hicham Entre les gifles des flics et les grands frères dans la came Axiom, aka Hicham Dans ma musique y a ma rage, ma souffrance et mes larmes Axiom, aka Hicham Malgré les tentations j'ai jamais vendu mon âme On grandit bancal quand on vient de la cité Ça frappe dans le mental et t'apprends vite l'adversité Quand t'as les crocs, tu penses mal, comme atteint de cécité La misère c'est trop rhatal, elle t'apprend la nécessité J'ai grandi au milieu des tours, des balcons rouillés Des poubelles au grand jour et des cages d'escalier souillées Qui passait dans le tiékar se faisait dépouiller Normal que très jeune j'ai su alors me débrouiller J'ai vu mon père se casser l'dos sur son vélo J'ai des revanches à prendre sur la vie qui passe au galop Carte entrée libre sur la galère si t'es pas abonné Le monde est en marche et pas question d'rester sur le palier Norside, la capitale du shit La prison de Loos est pleine de frères qui rêvaient d'réussite Hicham ne vit pas sa vie comme une évidence Axiom arrive au rap comme un énarque à la Présidence Axiom, aka Hicham Du vrai du sahr, dans la cité du drame Axiom, aka Hicham Entre les gifles des flics et les grands frères dans la came Axiom, aka Hicham Dans ma musique y a ma rage, ma souffrance et mes larmes Axiom, aka Hicham Malgré les tentations j'ai jamais vendu mon âme Que des faits réels pour mes gars, mes gos Que des faits réels, env', envoie les kilos Que des faits réels, ma scène c'est un truc de pro Que des faits réels, ça fait tchiki tchiki brow C'est le retour du Lillo Marocco Rattaque sévère sur le beat comme la matraque d'la lice-po Pour mes kheys, mes rholotos Qui rêvent de gagner au loto Qui rigolent d'avance à la simple idée d'toucher des lingots Je suis le fer de lance du Nord de la France Je représente la Norside et sa souffrance La zonz de Loos, la hagra et la perquise La mouise, la heuss et la banquise Je suis Norside, je nres Norside Je vis Norside donc je crèverai Norside Axiom, t'as qu'à dire Hicham, Axiom aka Hicham Axiom, aka Hicham Du vrai du sahr, dans la cité du drame Axiom, aka Hicham Entre les gifles des flics et les grands frères dans la came Axiom, aka Hicham Dans ma musique y a ma rage, ma souffrance et mes larmes Axiom, aka Hicham Malgré les tentations j'ai jamais vendu mon âme</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bagdad</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Je m'appelle Bagdad, et je suis tombée Sous le feu des blindés, sous le feu des blindés On m'appelle Bagdad, née sur les rives du Tigre je n'sais plus trop quand Ma mémoire flanche, j'ai mal partout, c'est que j'ai près de deux-mille ans J'ai vu les rois, les guerres se succéder Voler mon corps, mes trésors et puis me déposséder Il paraît qu'il fallut cent-mille hommes pour me faire en quatre jours Les Abbassides me portaient un tel amour Je fus la plus grande ville du monde, on m'appelait don de Dieu Capitale des savoirs, je brillais de mille feux Malgré ce que m'ont fait Houlagou et Tamerlan Je fus maîtresse, esclave, Shéhérazade de tous les temps Orient! Mon sang noir qu'on fait boire à l'Occident Mon cur saigne pour ma sur en Afghanistan Je m'appelle Bagdad, et je suis tombée Sous le feu des blindés, sous le feu des blindés On m'appelle Bagdad, princesse défigurée Shéhérazade m'a oubliée On m'appelle Bagdad, une vieille dame née dans le Golfe Persique Les hommes me couvraient de pierres, de soie, de bois de Chine et d'Afrique J'ai vu naviguant les Vaillants, qui peut s'en souvenir? Avant Cordoue, je savais déjà ce que seraient les villes de l'avenir Les prétendants se battaient pour moi jusqu'en Espagne Mes rivales admiraient mes formes bien avant Charlemagne J'étais jeune et belle, aujourd'hui je suis enchaînée Otages d'étrangers, mes enfants s'entretuent, je vais céder Ils sont trop jeunes pour se rappeler qui j'étais Je sens la faiblesse me gagner, la vieillesse me faire douter J'entends ma sur crier Allah ou la mort Ironie du sort, notre sang noir est le trésor Je m'appelle Bagdad, et je suis tombée Sous le feu des blindés, sous le feu des blindés On m'appelle Bagdad, princesse défigurée Shéhérazade m'a oubliée On m'appelle Bagdad, je sens le souffle glacé Mes derniers instants s'approcher doucement, me caresser les flancs Je me souviens de ces Chrétiens, fidèles alliés musulmans Me défendant contre les extrêmes bien avant l'Empire ottoman Ces Britanniques qui se disaient mes amis Avant d'être ville d'Irak, j'étais capitale de Mésopotamie J'ai vu ce fou pendu par un autre fou qui le disait trop fou Je m'en fous moi, de leur cur fou, j'ai vu Cordoue et Corfou J'ai eu mes heures de gloire, ce monde suffoque Vous pouvez me croire, la fin d'une époque Les pouvoirs et les richesses les ont aveuglés Si seulement ils pouvaient écouter une Dame à son chevet... Je m'appelle Bagdad, et je suis tombée Sous le feu des blindés, sous le feu des blindés On m'appelle Bagdad, princesse défigurée Shéhérazade m'a oubliée Bagdad, Bagdad, Bagdad kem kounti Jamila Bagdad, Bagdad, Bagdad kem kounti Jamila</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dans la tête d’un fou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Je suis née de l'amour entre deux neurones Mon monde, des synapses, de la glie et des axones J'ai appris à marcher le long du système nerveux De la gaine de Schwann, l'influx est mon milieu De l'hémisphère cérébral à la moelle épinière Du squelette jusqu'aux jonctions musculaires Le rythme cardiaque qui s'accélère Des spasmes nerveux et frottements maxillaires Je suis né dans la tête d'un fou C'était presque l'aube, j'étais encore floue Ce con d'insomniaque s'est levé d'un coup Dans son local de merde, il m'a jetée à bout Mon école une clé d'sol sur MPC Un Protools M-Box 2 pour cour de récré Si vous saviez l'nombre de micros que j'ai rencontrés De batteries jouées, d'instrus qu'il a jetées Le son c'est l'ghetto, faut s'faire une place Mon créateur s'est fait sniper, personne voulait d'ma race Je n'suis qu'un concept mais bientôt j'serai un genre Une fois c'est un évènement, deux fois c'est un genre Mais bientôt, j'vais devoir grandir Je cherche des instruments traditionnels pour m'enrichir Pour le moment j'me cherche, adolescente en musique Entre les samples orientaux, les sons électriques Les gens autour de moi ne comprennent pas ma technique Je suis qu'une idée dans la tête d'un gars qui m'appelle Bledkick Moi je n'étais rien du tout Ma vie ne valait pas un clou Je suis née dans la tête d'un fou J'étais qu'une idée, maintenant je suis partout Après la sueur, les larmes et les coups Les nuits blanches, j'suis encore debout Je suis née dans la tête d'un fou Maintenant, tu m'entends partout, tu m'entends partout Maintenant, j'suis partout, tu m'entends partout Déjà je passe de bouche en bouche Des gens me sifflent, me chantent même sous la douche Au mix, au master, on m'a donné du niveau De site en site, mp3 et en radio On me commande dans les magazines On m'aime, on me traite, en club on me dit in Des sonneries de téléphone et des clips On me presse en CD, on m'appelle le hit Je suis née dans la tête d'un fou C'était presque l'aube, j'étais encore floue On danse sur moi en discothèque Number one en sonothèque Je suis des moments de fêtes ou de pleurs La BO de plein de vies et même des coups de cur Qui aurait cru qu'depuis son local Mon créateur me nommerait bombe de balle? Et encore vous m'avez pas vue sur scène Comment j'existe et comment je larsène Les gens me chantent en levant les bras en l'air Un air d'Orient et partout de la lumière Un décor, un DJ et des HF De la danse, de la chance, grand écran VF Moi j'remercie les gens qui ont cru en moi J'aurais pas pu naître il y a quelques mois Les gens ne comprenaient pas ma technique J'étais qu'une idée dans la tête d'un gars qui m'appelait Bledkick Moi je n'étais rien du tout Ma vie ne valait pas un clou Je suis née dans la tête d'un fou J'étais qu'une idée, maintenant je suis partout Après la sueur, les larmes et les coups Les nuits blanches, j'suis encore debout Je suis née dans la tête d'un fou Maintenant, tu m'entends partout, tu m'entends partout Maintenant, j'suis partout, tu m'entends partout</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Des Youyous dans ma mairie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dans ma mairie y'a des fatmas et des youyous Des foulards, des babouches et des boubous Des voyous, des Zoubida, des Mamadou Au secours! On n'est plus chez nous ! Fichtre, ma fille va épouser un moricaud Notre coq crie youyou au lieu d'cocorico Elle s'est mise en tête de se convertir, rejoindre l'autre camp J'aurais encore préféré que ce soit un mariage blanc Et je les vois, on dirait des gitans L'argent des allocs transformé en or sur les kaftans Manquerait plus que le voyage de noces en Afghanistan Jamais sans ma fille! je souffre déjà de ce qui m'attend Et quand ils dansent, on dirait une émeute Et qu'est-ce tu regardes ma fille, toi? qui fait baver la meute Les pères ont des claquettes, les fils ont les baskets Même avec le costard, la racaille met des casquettes Ma fille s'appelle Marianne et je vis le drame Allah habibi yallah! ça plaît même à ma femme Je suis déçu, moi qui pensais qu'ils étaient polygames J'aurais peut-être pu présenter mes maîtresses à ma femme Dans ma mairie y'a des fatmas et des youyous Des foulards, des babouches et des boubous Des voyous, des Zoubida, des Mamadou Au secours! On n'est plus chez nous ! Chers concitoyens, en vérité j'vous l'dis Dans ma mairie y a des mariages blancs entre noirs et même entre gris D'ordinaire, j'les vois débarquer à cinq-cents Vingt hommes, quatre-vingts femmes et quatre-cents enfants Indisciplinés, ils mettent la mairie sens dessus d'souk C'est dans leurs gènes, c'est comme ça que voulez-vous Et quand j'dis à Monsieur qu'il peut embrasser la mariée Oh devant tout le monde! Ehhhh Ils sont bizarres, j'vous jure ils sont pas comme nous En plus ils sont pas discrets, c'est sûr, on n'est plus chez nous C'est comme cette équipe de France que des Noirs et un bougnoule Ça écoute du rap et ça mange de la semoule Mais d'quel droit Thuram massacre la Marseillaise? Mais d'quel droit ces voyous représentent la nation française? On est envahi par les indigènes de la brousse Et si vous ajoutez le bruit des youyous et l'odeur du couscous... Dans ma mairie y'a des fatmas et des youyous Des foulards, des babouches et des boubous Des voyous, des Zoubida, des Mamadou Au secours! On n'est plus chez nous ! Des derboukas des tam-tams et des marabouts Des grosses moustaches, des zoulous, des danses vaudou Ça baragouine des charabia ouhalala, doudoubouana, sahra, labes? et hamdoulilah! Faut les voir quand ils débarquent avec toute leur smala Avec toute leur marmaille, on s'croirait à la casbah Ils nous emmerdent, ils nous saoulent avec leurs traditions Leur code de la famille, leurs rituels, leur religion J'suis pas raciste moi non mais là y a des limites ah oui! En France Monsieur, on a des règles de conduite oui Monsieur! Y a un siècle, ils étaient tous encore parqués dans des zoos Et aujourd'hui, ils veulent nous piquer notre boulot Ils veulent être Ministres, étudier à Sciences Politiques Et pourquoi pas devenir Président de la République C'est l'monde à l'envers, y a plus d'hiérarchie plus d'respect Ça veut même plus rien dire d'être un vrai Français Dans ma mairie y'a des fatmas et des youyous Des foulards, des babouches et des boubous Des voyous, des Zoubida, des Mamadou Au secours! On n'est plus chez nous !1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ecrire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Les tripes à l'air, j'écris à l'encre de mon sang Le spleen dans la tête, comme un jour de pluie, j'allume de l'encens Une bougie, douce lueur sur un coin d'table Le bois expire son âge, ambiance austère et palpable Dehors, il fait sombre comme en mon humeur J'ai l'intérieur mélancolique, un truc qui m'ronge comme une tumeur Un mal-être, j'ai la déprime récurrente Un truc qui m'manque, une sorte de nostalgie trop endurante La fumée d'ma cigarette s'élève et dessine Des chimères qui m'prennent très vite pour un imbécile Une odeur de cèdre, dans ma chambre sur les murs blancs Sous ma laine, ma chaude haleine murmure déjà ses plans J'chuchote mon rap car écrire m'est nécessaire Dans mes viscères, face à moi-même, j'reste sincère J'écris, j'rappe parce que ça m'est nécessaire On a l'amour de la zic, des mots logés dans les viscères Écrire, tant qu'écrire est nécessaire L'amour de la plume, des mots logés dans les viscères Écrire face à soi-même tant qu'on est vivant C'est vital comme survivre pour un survivant Ô toi ma plume qui remplit mon Univers Déverse sur ma feuille blanche le sacré mystère Que le poète veut toucher une fois dans sa vie À la quête d'un trésor qu'il veut garder pour lui Écrire, aligner des schémas qui forment des lettres Alpha beta, livre-moi le secret des ancêtres Je scande pour toi un hymne à la gloire Entends-tu mes appels quand j'reste seul dans l'noir? J'veux savoir écrire, j'veux savoir dire juste Révéler c'que l'Homme cache en son buste Découvrir c'que l'humanité a d'plus vrai Son essence, la toucher, en être au plus près J'veux trouver les mots, quand ils viennent à manquer J'ai aussi la fièvre de dire, tu l'auras remarqué Dis-moi tout, je suis assis une page dans la main Je pourrais attendre ainsi sans fin sans lendemain Écrire, tant qu'écrire est nécessaire L'amour de la plume, des mots logés dans les viscères Écrire face à soi-même tant qu'on est vivant C'est vital comme survivre pour un survivant Mes cahiers sont pleins d'amour, de ratures et de revanches De tranches de vie, étrange idée que la feuille blanche Tenter de coucher le monde entre des lignes Y trouver un sens, une réponse ou bien un signe Laisser une trace indélébile à l'encre noire Une trace dans l'Histoire ou encore dans les mémoires Écrire, pour certains comme moi, est le sens du passage ici Une chance quand partout, l'absurde officie Seul face à soi-même, puiser en soi une violente énergie Dans les tréfonds d'son âme comme une puissante synergie La partager avec ceux qui la perçoivent Ceux qui savent apprécier cet élixir et qui le boivent Tant d'arbres meurent pour une seule feuille J'veux leur faire honneur et s'il le faut porter leur deuil Mais la mission en vaut la chandelle Avant qu'elle ne s'éteigne, écrire pour lui faire la part belle Écrire, tant qu'écrire est nécessaire L'amour de la plume, des mots logés dans les viscères Écrire face à soi-même tant qu'on est vivant C'est vital comme survivre pour un survivant</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fais pas ch...</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ouais, ouais, j'sais, j'sais Mais s'te plaît, fais pas chier, chier Ouais, ouais, j'sais, j'sais Mais s'te plaît, fais pas chier, chier J'te jure les gens, si tu les suis, t'as pas fini Moins ils font d'zic et plus là-dessus ils ont un avis Pour certains, il faudrait qu'on fasse des tubes Et pour d'autres, faut rester underground pour pas s'faire entube Faudrait mettre du live sur scène Ça rassure les programmateurs, pour les carillons, j'ramène Big Ben J'te jure ils m'saoulent trop avec c'que j'devrais ou pas faire Et quand ils sont saouls, il sont relous, ils lâchent jamais l'affaire Tu veux lui dire lâche-moi mais l'gars t'rappe à l'oreille J'te promets, ce qu'il faut pas faire pour gagner son oseille Y en a qui te parlent comme si tu leur devais tout Sous prétexte qu'ils ont ton album, faut leur donner tout Et si tu les écoutes, faudrait que tu mettes de l'eau dans ton vin T'façon moi j'bois pas, alors c'est comme lutter en vain Mais j'ai pas envie d'correspondre à vos clichés Moi tout c'que j'veux c'est faire ma zic sans jamais tricher Ouais, ouais, j'sais, j'sais Mais s'te plaît, fais pas chier, chier Ouais, ouais, j'sais, j'sais Mais s'te plaît, fais pas chier, chier Pour d'autres encore, faudrait mettre des danseuses tout l'long du show Dans mes refrains histoire que c'soit encore plus chaud Et pendant qu'on y est, tu veux pas que j'fasse rapper une meuf à ma place Vu ton raisonnement, y aurait plus de chances qu'on fasse d'la caillasse Laisse-moi faire mes hits tranquillement, moi j't'ai rien demandé C'est tu kiffes ou tu kiffes pas, pour le reste faut pas m'saouler Faudrait des titres plus alternatifs, plus hors ghetto Des trucs pour étudiants qui kiffent le rap mais pas ses propos Faudrait rapper comme ci, rapper comme ça Faire d'la zic comme ci, ou d'la zic comme ça Facile de parler, d'critiquer quand on fait rien Les conseillers sont pas ceux qui paient quand il s'passe rien Si j'me plante demain, est-ce que tu seras là pour m'relever? c'pas dit Si tes conseils sont aussi bons, garde-les pour toi mon ami C'est mon oseille, c'est ma zic, c'est mon projet Donc j'ai envie de l'faire sans jamais tricher Ouais, ouais, j'sais, j'sais Mais s'te plaît, fais pas chier, chier Ouais, ouais, j'sais, j'sais Mais s'te plaît, fais pas chier, chier J'aime c'que j'fais, mais faudrait que j'change de flow Que j'change même de voix, ou même que j'change de mots Que j'rappe plus grave ou que j'rappe plus aigu Bon écoute mon brave, là j'crois qu'j't'ai assez vu J'te jure les gens, si tu les suis, t'as pas fini Plus ils font d'zic et plus là-dessus ils ont un avis Pour certains, faut pas faire de tubes Et pour d'autres, faut être plus commercial pour pas s'faire entube Pour certains, faut pas mettre de live sur scène Tu peux tout lancer d'une MPC même le carillon d'Big Ben J'te jure ils m'saoulent trop avec c'que j'devrais ou pas faire Même à jeun il sont relous, ils lâchent jamais l'affaire Après avoir tout essayé, j'me suis dit, j'vais en faire des couplets Au moins, si j'dois m'répéter, j'aurais plus qu'à les réciter Écouter les conseils, c'est bien, mais j'suis dans c'que j'fais J'aimerais vraiment continuer à l'faire sans jamais tricher Ouais, ouais, j'sais, j'sais Mais s'te plaît, fais pas chier, chier Ouais, ouais, j'sais, j'sais Mais s'te plaît, fais pas chier, chier</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Génération 75</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Celle là, elle est pour la génération Goldorak Seuls les vrais savent T'as vu, hein? Comment le temps passe vite Génération 75 Génération sacrifiée Génération 7.5 Génération oubliée Génération 75 Génération sacrifiée Génération 7.5 Génération oubliée Bataille aux marrons, bouclier de carton Billes, chuques, frites, malabars et bonbons Pull en laine bleu-vert, col V Skate board, génération sept-cinq soldée Causer à la lune derrière une vitrine Des rêves plein, plein la poitrine Période enfantine, cheveux bouclés, coupe à l'afro Patte d'eph, j'm'prends pour un cheval au trot Cow-boy, indien, policier ou voleur Steve Austin, Spectreman ou Colt Seavers Siffle Maya l'abeille, Goldorak fulguro-poing Bruce Lee, c'lui qui m'cherche j'lui casse la figure au poing J'rêvais d'un autre monde où j'serais le héros Sortir d'cet enfer où les grands jouent avec l'héro Photos jaunies et nos visages prennent des rides Génération 7.5 enfants terribles Génération 75 Génération sacrifiée Génération 7.5 Génération oubliée Génération 75 Génération sacrifiée Génération 7.5 Génération oubliée Centre social, gâteau, après-midi piscine Foot en salle, à sept heures mon daron rentre de l'usine Judo, ping-pong, génération Mitterrand Cours d'Arabe, mosquée et squatter les bancs Ta mère toi, tu vas voir ta gueule à la sortie Vol de Cléopâtre dans mon sac de sport Billy Dallas crève ta race d'vant les magazines d'jouets Dans les blocs y'a pas de cheminée, le Père Noël passe jamais Cage d'escaliers crade, j'adore l'odeur du renfermé Sauter dix marches à la fois sans me casser les pieds Voler des fruits dans les jardins privés Voler des glaces aux gosses de riches, aux p'tits minets Radio Raï, message pour les familles Immigrés, ouvrières, R12 et rami Si on part au bled, c't'année ça s'rait la cerise Mais Papa est au chôm'du, paraît qu'c'est la crise Génération 75 Génération sacrifiée Génération 7.5 Génération oubliée Génération 75 Génération sacrifiée Génération 7.5 Génération oubliée Vingt-cinq ans après, on y est, c'est l'an 2000 Pas d'prise de conscience et un monde encore plus débile Les grands ont la quarantaine et ça peine Balançant entre s'ranger, s'barrer ou faire sa peine Nous, génération 7.5 déjà grillée Aucune alternative, c'est l'chômage ou resquiller Génération privée d'insouciance, on en perd le sourire Génération 7.5 délaissée à pourrir Des espoirs envolés, broyés par le bagne La centralisation écrase les campagnes La voix d'la liberté d'Albator dans la tête Adolescence menottée pour vol de mobylette T'as vu hein, comment le temps passe vite Nous on n'a qu'les miettes, allez là-dessus, médite Génération X, sacrifiée comme vous dites Génération 75, génération maudite Génération 75 Génération sacrifiée Génération 7.5 Génération oubliée Génération 75 Génération sacrifiée Génération 7.5 Génération oubliée</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hami</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C'est pas la bourgeoisie qui s'la donne au Champagne C'est pour les srabs, la zone marquée par le bagne C'est pour les vrais, les braves, les surs, trop de larmes Tous ceux que la France oublie sauf quand ça crame C'est pour mes srabs de la zone qui sont hami! Ceux qui taffent dur toute la semaine, c'est hami! Trop de factures, de contrôles, c'est hami! Tous on voudrait la belle vie, c'est hami! Dans le club l'ambiance est toujours hami! Sur la piste de danse c'est toujours hami! Même les timides sont en transe, c'est hami! Quand y a du bledkick, c'est hami! Nous c'est la frontière belge au pays de la neige Direction Hollande jusqu'au petit dèj Wallah ici c'est trop hami! Comme vivre dans le bled des Sarkozy Les factures et les dettes et les prises de tête Les contrôles, le ras-le-bol et zéro pépettes On rêve tous de la belle vie De la plage, du Soleil, mais c'est hami! Entre la zerm, la derm et le redma, hep Le moral à sec et le froid, hep! Le compte en banque à sec, fin du mois, hep! C'est la hass, ouais mec, qu'est-ce que tu crois, hep! Ça devient hami, j'en ai mal à la tête Il me faut de l'air, du son, j'ai trop de blèmes sous la casquette Ça devient hami, il me faut des pépettes Mec c'est chaud, ça devient hami! C'est pour mes srabs de la zone qui sont hami! Ceux qui taffent dur toute la semaine, c'est hami! Trop de factures, de contrôles, c'est hami! Tous on voudrait la belle vie, c'est hami! Dans le club l'ambiance est toujours hami! Sur la piste de danse c'est toujours hami! Même les timides sont en transe, c'est hami! Quand y a du bledkick, c'est hami! Nous c'est la Norside adaptés à la crise Des Bédouins, des Touaregs sur la banquise Nous c'est les devises, adaptés au biz Lille, Roubaix, Tourcoing, on vient rafler la mise Nous c'est l'envers du décor et les rifs de Nador Berbères et délinq' de Casa port Alger Tlmecen et Tounsi de Jem Nous, nous, nous, c'est l'Afrique du Nord Diaspora maghrébine, hep! Paris, Bruxelles et Brooklyn, hep! Du Québec à Madrid, hep! Taxi phone jamais vide, hep! Ça devient hami, j'en ai mal à la tête Il me faut de l'air, du son, j'ai trop de blèmes sous la casquette Ça devient hami, il me faut des pépettes Mec c'est chaud, ça devient hami! C'est pour mes srabs de la zone qui sont hami! Ceux qui taffent dur toute la semaine, c'est hami! Trop de factures, de contrôles, c'est hami! Tous on voudrait la belle vie, c'est hami! Dans le club l'ambiance est toujours hami! Sur la piste de danse c'est toujours hami! Même les timides sont en transe, c'est hami! Quand y a du bledkick, c'est hami! C'est pas la bourgeoisie qui s'la donne au Champagne C'est pour les srabs, la zone marquée par le bagne C'est pour les vrais, les braves, les surs, trop de larmes Tous ceux que la France oublie sauf quand ça crame On veut la belle vie La villa, le Q7 pour famille nombreuse Mais c'est trop hami! Marlich on a la volonté trop dangereuse Ça devient hami, j'en ai mal à la tête Il me faut de l'air, du son, j'ai trop de blèmes sous la casquette Ça devient hami, il me faut des pépettes Mec c'est chaud, ça devient hami! C'est pour mes srabs de la zone qui sont hami! Ceux qui taffent dur toute la semaine, c'est hami! Trop de factures, de contrôles, c'est hami! Tous on voudrait la belle vie, c'est hami! Dans le club l'ambiance est toujours hami! Sur la piste de danse c'est toujours hami! Même les timides sont en transe, c'est hami! Quand y a du bledkick, c'est hami!</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Insomnies</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>J'arrive plus à dormir, c'est de pire en pire J'me retourne dans mon lit, j'attends l'sommeil J'arrive plus, j'arrive plus à dormir L'insomnie me guette, des idées noires en tête Les cachetons m'défoncent mais j'trouve pas l'sommeil J'arrive plus, j'arrive plus à dormir Le temps passe, passe l'orage, rage au ventre Ventre mou, mouchoir plein, plein de larmes Larme à l'il, il de lynx, lynx de jungle Jungle urbaine, benne d'ordures, dure la vie Vie d'bâtard, tard la nuit, nuit trop blanche, blanche ou claire Clairement mon cerveau tourne à 200 Cent tours à la seconde je cherche un repère Perdu dans cette époque de ouf de mahboul Boule au ventre, j'me sens seul même quand y a foule Fous le bordel car rien d'autre à foutre Foutre ma tête au bout d'une corde ou d'une poutre Poutre comme celle qu'il y a au fond de mon il il? J'y mate la paille dans celui du voisin Zinzin comme si je vivais à Gaza Gars, z'arrive plus à respirer dans tout c'bazar Zarma tu crois que je dors tranquille Kill! Strike dans ma tête et dans ma ville Vil comme on l'est tout dans le système de la tune Tu n'auras rien d'autre que la guerre et l'infortune Fortune dénuée et cerveau embué Buée devant les yeux et poumons englués Glu et mélasse psychologique, ma pensée s'emmêle Mêle-pêle, j'aime trop père et mère Mer et terre sont des décors que je vénère Nerfs à vif, dans le béton la banlieue misère Misère! J'ai le stress qui chante sur une instru Instru-mentale et le flow bancal Bancal, j'décale vu qu'il faut être bankable Câble que je pète devant l'insupportable Table d'écoute et GSM sous le micro Micro que je tiens juste ici entre mes crocs Crocs blancs, j'suis pas assez blanc Blanc comme les cols blancs et tous ceux qui font semblant Semblant de repos pour toutes mes nuits Nuit blanche, je zappe et je mate mes insomnies J'arrive plus à dormir, c'est de pire en pire J'me retourne dans mon lit, j'attends l'sommeil J'arrive plus, j'arrive plus à dormir L'insomnie me guette, des idées noires en tête Les cachetons m'défoncent mais j'trouve pas l'sommeil J'arrive plus, j'arrive plus à dormir J'ai les cernes, cerne rien, rien à faire Faire la grasse, la grasse mat', mate la Tèv' Tèv' trop nase, nase chasse, chasse à courre, court métrage Métrage long, long éveil, éveil dur, dur à suivre Suivre l'info, info fausse Faussement je referme les yeux histoire de Depuis hier, j'essaie de m'endormir Miroir devant moi j'ai une sale gueule Gueule de déterré, commence une sale journée Journée pluvieuse comme d'hab' dans le Nord Nord, ma région, mon univers, mon décor Décor aussi cynique que le mensonge d'un ministre Ministre aussi sinistre qu'il pue de l'intérieur Rieur? Hum, j'crois qu'j'suis pas d'humeur Humeur noire comme ma nuit qui fut qu'une rumeur Rumeur qui court les rues, ronge comme une tumeur Tumeur qui me gangrène à force de clopes et sueur Sueur qui perle lentement de mon front Front National ils sont nases, c'est normal Normal et bestial comme la seconde guerre Guerre de religion ou guerre de sens Sens, les miens sont à plat, chute de tension Tension, anxiété, je manque de tactique Tic et toc, j'ai face au tic-tac Tac, tac, j'ai faim, j'ouvre un Kit-Kat 44 sur la 6 et toi des pâtes pâtes Pâtes et sauce tomate de chez Aldi Dire qu'aujourd'hui j'vis du RMI Mi-figue mi raisin, ainsi va la vie Vie de chien et vie de faux amis Ami, vas-y reviens, arrête tes manières Manières de chien ou de chat de gouttière Tiers payant, tiens ma CMU! Ému, j'aurais préféré diriger ma PMI Mi c'est normal alors que je fasse des insomnies J'arrive plus à dormir, c'est de pire en pire J'me retourne dans mon lit, j'attends l'sommeil J'arrive plus, j'arrive plus à dormir L'insomnie me guette, des idées noires en tête Les cachetons m'défoncent mais j'trouve pas l'sommeil J'arrive plus, j'arrive plus à dormir</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>J’ai Fait le Rêve</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Face au chaos du monde, j'me suis endormi Il me parut alors clair que celui-ci n'était pas fini Que la huitième merveille devait être lui Que le huitième jour devait donc naître dans nos esprits J'ai donc fait le rêve d'un monde fait de rêves Qui se fédère sans lutte, sans que nul ne crève Un autre monde où la conscience est toujours sans trêve Où la discorde, la mésentente ne sont toujours que brèves Un monde où l'égalité est adulée Où la dette du Tiers-Monde était annulée Que les conflits d'territoire étaient désuets Les guerres rédhibitoires face à une vision désembuée Un monde où c'est l'économie qui sert l'individu Une démocratie planétaire, légitime et maintenue Mais j'ai rêvé éveillé face à l'inadmissible Crois pas c'qu'ils te disent, un autre monde est possible! I have a dream... J'ai fait le rêve d'une Terre, d'une Terre sans frontière D'une Terre où les sourires prospèrent, une Terre sans barrière Une Terre où l'Homme délaisse la guerre, lutte contre les misères Conscient qu'ici nous sommes tous surs et frères J'ai rêvé qu'on n'avait un seul drapeau Quelle que soit la couleur d'la peau Chacun avait sa place sur le même bateau J'ai rêvé qu'on avait les mêmes hôpitaux Que si t'avais froid, y avait toujours quelqu'un pour t'filer son manteau J'ai rêvé d'un monde où on mange mieux, où l'on vit mieux Où l'on meurt vieux mais où l'on meurt mieux Et j'ai rêvé d'une planète où on peut lever les yeux Sans voir qu'on vient tout juste de polluer les cieux J'ai rêvé d'une planète qui part pas en vrille Où l'on n'a pas besoin d'exploiter son prochain pour gagner sa vie Mais j'ai rêvé éveillé face à l'inadmissible Crois pas c'qu'ils te disent, un autre monde est possible! I have a dream... Et j'ai vu un autre espace Un autre Univers où les gens, librement, se déplacent Un monde avec une tout autre éducation Centré sur l'humain, le partage, la progression Ouais j'ai rêvé d'une humanité plus tolérante, moins incohérente Célébrant la vie, beaucoup plus tempérante Un monde où nos cultures, même si différentes Prônaient l'entente dans la paix toujours prépondérante Ouais, j'ai rêvé d'un monde fait de plus de justice Où l'simple bon sens fait office de police Equitable, dont l'commerce ou le monde est à toi Un monde unique, sans frontières, un seul Etat Une Internation à qui appartient tous les monuments Les forêts, les mers, les terres, préservant les enfants Mais j'ai rêvé éveillé face à l'inadmissible Crois pas c'qu'ils te disent, un autre monde est possible! I have a dream...</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Je suis l’Arabe</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Est-il encore nécessaire d'expliquer les raison de ma lutte Les raisons pour lesquelles j'exècre ceux qui baissent leur fut' De parler d'ma ville aux projets à dix centimes J'ai l'impression d'faire partie d'un peuple que très peu estiment La montée du Front National en France me touche Comme celle de l'extrémisme là où le Soleil se couche Que j'te raconte comment on nous regarde dans la rue Dès qu'on est plus de deux comment les flics nous tuent Comment les lois Sarko sont pour nous la victoire de la Gestapo Les propos qu'on tient à un gamin à cause de sa peau Est-il encore nécessaire de dire notre contribution à l'histoire Comment l'Arabe a défendu la commune, ses remparts Des traces de bleu d'travail jusqu'aux cités dortoirs Du nombre de nègres des sables défilant dans les parloirs Douce France, cher pays de mon enfance J'ai connu ni ta chaleur, ni ton insouciance Je suis l'Arabe L'ennemi public numéro 1 Le Nègre des sables Le Maghrébin À mes potes ils ont mis des fausses barbes Les ont fait passer pour des intégristes les gros tarb Pointés du doigt dans les reportages sur la délinquance Stigmatisés dans l'affaire du voile alors c'est ça la France? Moi j'suis pour la laïcité, pas besoin d'm'les casser Si la République est en crise, fais l'bilan du passé Entasser les gens dans des blocs, les jeter une fois usités Dire qu'ils sont français mais les appeler beurs des cités Ils sont incohérents, on est censé l'accepter Ils croient que seule leur vision incarne la modernité Code 352 l'Algérien considéré comme un chien Et j'te passe l'oubli sur les tirailleurs maghrébins Pour endiguer le communisme ils ont financé les islamistes Tuant, mettant les peuples sur la liste Si l'intégration veut notre désintégration Que nul ne s'étonne de récolter les fruits de la frustration Je suis l'Arabe L'ennemi public numéro 1 Le Nègre des sables Le Maghrébin Comment expliquer que l'conflit en Israël perdure Que des mômes continuent, cailloux contre fer dur Comment expliquer que personne n'intervienne Comment vouloir alors que ceux qui s'identifient n'aient pas la haine C'est un jeu malsain où chacun s'fait fantassin Où les peurs font qu'les frustes deviennent assassins Comment expliquer qu'un Président en dépit de tous les États Peut faire la guerre à lui seul dans n'importe quel État Des pays musulmans engagés dans la guerre contre lIrak Tu l'savais pas, j't'l'apprends, eh ouais ça met une claque Ils jouent sur nos peurs ancestrales faisant de l'Arabe un envahisseur Entre Ben Laden et Kelkal quelle image pour nos frères et nos surs? L'Arabe bouc émissaire ça irrite Comment un peuple sémite pourrait-il être antisémite? Avant d'parler arrêtez vos clichés Faut comprendre les causes pour comprendre les effets Je suis l'Arabe L'ennemi public numéro 1 Le Nègre des sables Le Maghrébin</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>J’fais pas semblant</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Wesh bébé, bien ou bien Négro des sables Bledkick Dans mon rap, dans mes phases, j'fais pas semblant! Dans mon cap, dans mes bases, j'fais pas semblant! Dans mon clan, dans ma clique, j'fais pas semblant! Dans mon camp, en équipe, j'fais pas semblant! En amour, dans la vie, j'fais pas semblant! En amis, en ennemis, j'fais pas semblant! Dans mes votes, dans mes luttes Dans mes fautes, dans mes buts Dans les potes, dans les putes J'fais pas semblant! J'peux pas contenter tout l'monde dans son raisonnement J'ai mon caractère aussi bien évidemment Le rap c'est des heures de travail, d'acharnement Je fais le son, la zik, le texte en mode passionnément Ce son te plait tu peux le graver dès maintenant Ça te plait pas, tu peux le zapper dès maintenant Fais pas semblant, pas besoin d'être élégant Les gens francs, c'est mon élément, alors mets pas de gants Chacun sa vie, chacun son style mec Personnellement autour de moi je fais le tri mec Je ne respecte que mon public mec, les srabs, la mif mec Et ceux qui me soutiennent via mon site mec Si les rapports humains devaient me corrompre J'préfère tracer mon chemin et puis rompre J'préfère la lumière à la pénombre Qu'être l'ombre de l'ombre de l'ombre de mon ombre Dans mon rap, dans mes phases, j'fais pas semblant! Dans mon cap, dans mes bases, j'fais pas semblant! Dans mon clan, dans ma clique, j'fais pas semblant! Dans mon camp, en équipe, j'fais pas semblant! En amour, dans la vie, j'fais pas semblant! En amis, en ennemis, j'fais pas semblant! Dans mes votes, dans mes luttes Dans mes fautes, dans mes buts Dans les potes, dans les putes J'fais pas semblant! J'veux pas faire semblant donc j'fais pas semblant Depuis l'enfance on apprend à courber l'échine Être le chien dans la France comme en Chine Chien, chienne, chiot, la hiérarchie T'façons partout le bas peuple il en chie Du coup y en a qui rêvent d'anarchie Mais quand tu regardes de près leur vie c'est l'ahrchi Moi j'assume pas d'être fils de ches-ri J'veux pas qu'Maman m'appelle mon chéri Ma langue n'a pas d'os mais elle casse du fer Y a que la vérité qui blesse sévère La vérité sort de la bouche des enfants? OK volontiers, j'ai dix ans! Dans mon rap, dans mes phases, j'fais pas semblant! Dans mon cap, dans mes bases, j'fais pas semblant! Dans mon clan, dans ma clique, j'fais pas semblant! Dans mon camp, en équipe, j'fais pas semblant! En amour, dans la vie, j'fais pas semblant! En amis, en ennemis, j'fais pas semblant! Dans mes votes, dans mes luttes Dans mes fautes, dans mes buts Dans les potes, dans les putes J'fais pas semblant! J'veux pas faire semblant donc j'fais pas semblant Non non non non non non non non non non non non! J'vais pas faire semblant manquerait plus qu'ça maintenant Non non non non non non non non non non non non! Il faut qu'tu le saches maintenant, maintenant, maintenant, maintenant Beaucoup de gens retournent leurs vestes avant la couette Oublient d'où ils viennent, se la pètent Rester simple aurait dû être une matière à l'école Ça nous éviterait les pétasses et les guignols! Dans mon rap, dans mes phases, j'fais pas semblant! Dans mon cap, dans mes bases, j'fais pas semblant! Dans mon clan, dans ma clique, j'fais pas semblant! Dans mon camp, en équipe, j'fais pas semblant! En amour, dans la vie, j'fais pas semblant! En amis, en ennemis, j'fais pas semblant! Dans mes votes, dans mes luttes Dans mes fautes, dans mes buts Dans les potes, dans les putes J'fais pas semblant!</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>J’kiffe le rap français</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DJ mets-nous du rap français Que j'comprenne les rimes sensées J'kiffe cette zik, fais-nous danser Moi j'kiffe le rap français DJ casquette à l'envers étudiant à la fac Fan de rap Outre-Atlantique commandé à la Fnac Blouson Bullrot Wear, inspiré du graff N'aime pas l'esprit du rap français, paraît même qu'ça l'zahaf Lui c'est un puriste, un vrai, un turntablist qui met des claques Et il monte des crews opportunistes à côté d'la plaque Alors j'ai comparé les textes français et cainri Et j'l'ai fait sans chercher d'prétexte, sans aucun parti pris Je l'jure à notre plus grande stupeur on parlait bien d'la même chose Et question écriture samahr mais en français on met la dose Venez pas m'dire que l'esprit cainri est mieux que l'esprit français Comme dirait un pote New-Yorkais en France, vous avez la rime sensée DJ mets-nous du rap français Que j'comprenne les rimes sensées J'kiffe cette zik, fais-nous danser Moi j'kiffe le rap français Paraît qu'le rap cef, c'est trop franc Qu'ça parle trop d'quartiers, d'sexe, de flics et d'Francs Qu'ils comprennent pas c'qu'on dit, vu qu'ils comprennent pas c'qu'on vit Mais compare-moi pas aux cainris, franchement tu serais surpris Paraît qu'le rap cef c'est pas assez bounce Alors DJ devient RB n'aime pas la vibe de la France Mais dès qu'un rappeur français fait du bounce On dit qu'il est commercial et qu'ça perd tout son sens Et au fait DJ, au moins tu comprends quelque chose à leurs trucs de fou Bah t'sais moi l'important, heu, c'est qu'ça nique tout! Bah don't casse me les boules fuck you Give me more French rap ouais it's rap français 1er dans ton Q DJ mets-nous du rap français Que j'comprenne les rimes sensées J'kiffe cette zik, fais-nous danser Moi j'kiffe le rap français J'les vois venir de loin, mais n'allez pas trop vite en besogne Ils vont dire Axiom il déconne, même si son son il cogne Mais nan, mais nan, eh, j'sais c'que j'dis tchio J'suis personne, certes, j'remets les choses en place, c'est tout min tchio Franchement, entre ceux qui crisent d'nous voir qu'avec une platine sur scène Et ceux qui disent qu'on a un mauvais public, l'ambiance est malsaine Mais j'les ai vus dans d'autres bleds danser sur ma zik Eh franchement, y a qu'en France que les gens font autant d'tminik Moi j'suis fier du rap français Des gens du hip-hop qui nous ont fait danser ou penser Respect à ceux qui nous ont représentés DJ on boit à ta santé, mais mets-nous plus de rap français DJ mets-nous du rap français Que j'comprenne les rimes sensées J'kiffe cette zik, fais-nous danser Moi j'kiffe le rap français Longue vie au hip-hop français, au rap français Moi j'kiffe le rap français Faut qu'on continue d'se battre De nous maintenir en haut, d'exploser les charts C'est la seule musique qui parle d'nos vies dans l'ghetto on n'a pas à rougir de ça Le hip-hop c'est quelque chose de fort!</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>La Souris</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>On m'appelait la Souris dans la vieille médina J'ai tout perdu en venant ici, je ne suis qu'un harraga Je suis né dans les rues de la vieille médina On m'appelait la souris sur la place Jamaa el Fna Je me rappelle des touristes à la pelle Des tajines berbères au mouton et au felfel À dix ans, je mendiais pour acheter mes cahiers Sirotant un verre de thé ou du lait caillé Mon père est mort il y a bien longtemps J'fais c'que je peux pour aider la Maman Mes potes sniffaient de la colle à rustine Normal qu'à douze ans je fus d'humeur mutine Dans une cale de bateau, j'me suis fait une place Je suis la Souris, et j'arrive Algésiras! À peine débarqué, j'ai vu les chiens me renifler En camp de rétention on m'a giflé Plat de lentilles, coups de crasse et de crosse Mais j'reviendrai, parole de gosse! On m'appelait la Souris dans la vieille médina J'ai tout perdu en venant ici, je ne suis qu'un harraga Je suis dans les rues de la médina la plus belle Assis dans un café en face de la tour Eiffel J'ai retenté la traversée à l'âge de dix-huit ans Ça fait cinq ans que je suis dans le bâtiment J'ai une copine, Justine, une fille clean C'est elle qui m'héberge, paraît qu'c'est un crime On s'aime vraiment depuis notre rencontre On aimerait se marier mais le monde est contre Même pas un visa mais hamdoullah la santé va bien J'ai ma vie, ma Justine et mes copains Quelquefois, j'envoie d'l'argent au pays J'fais ce que je peux pour aider la famille Je marchais tranquillement près de République Quand ils m'ont embarqué dans ce car de flics En camp de rétention, coups de crasse et de crosse Mais j'reviendrai, parole de gosse! On m'appelait la Souris dans la vieille médina J'ai tout perdu en venant ici, je ne suis qu'un harraga Depuis que ces connards m'ont ramené en charter Je n'dors plus, je pense qu'au détroit, à la mer Qui me sépare de mes rêves, mon amour De ma vie, mon désir, mes espoirs depuis toujours Je n'suis plus la petite Souris Je tente la traversée avec quelques gars du Mali On voit la côte mais la barque a lâché Déshydraté, mon Dieu que l'eau est gelée! J'étais pas loin de la côte, j'la voyais Et j'pensais à ma Justine, j'vous ai pas dit mais elle est enceinte Et dire que j'vais jamais connaître mon fils Messaoud Mais j'avais plus d'force et dans l'eau j'étais gelé Punaise, tout ça pour des papiers... On m'appelait la Souris dans la vieille médina J'ai tout perdu en venant ici, je ne suis qu'un harraga</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>La Tour des Miracles</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Nous, La différence on a grandi dedans x2 Nous la différence On a grandi dedans Avec ou sans la France On ira de l'avant Au rez-de-chaussée, la famille Jose Dites surtout pas au père qu'ils sont français Au premier Piello, famille juive polonaise Une grand-mère a tout casser la molaire si elle monte la mayonnaise Au deuxième Hassen, un gars simple un galsen, son père syndicaliste Troisième des berbères de Beni Snassen Au 4 des shleuh de soucis et vrais biznessman Y'a des blonds, des châtains, des bruns, des rouquins Des cheveux lisses des crépus et des cheveux comme du crin Y'a des noirs, y'a des jaunes, y'a des blancs, des marrons, des foncés et des clairs, qui deviennent verts Nos enfants sont vivants, tendus comme l'échec scolaire Et vu qu'on est perdant on a le moral des combattants Nous, la vérité c'est même pas qu'on se tolère Nous, la différence on a grandi dedans x2 Nous la différence On a grandi dedans Avec ou sans la France On ira de l'avant Au cinquième Jean-Claude livreur d'origine malienne Écoute du rap à donf et rêve de Porsche Cayenne Au 6, Rachida de famille algérienne Elle digère pas ses tiffs et sa vie de galérienne Au 7 y'a la famille Jeanjean des rouquins types flamands Des schabla délinques depuis l'age de dix ans Au 8 un étudiant corse qui sort de nulle part Qui aide les gamins a faire leurs devoirs Ici ça se chahute, se dispute, pour des questions de réput' L'identité nationale pour nous c'est de la turlute Là-haut ils blablatent, ici que les gens luttent Les assoces se battent quand l'État joue sa langue de pute Y'a ceux qui vont en vacances pour apprendre la culture des autres Nous on se barre au bled pour se ré-approprier la nôtre Y'a ceux qui ont besoin d'aller loin pour comprendre les gens Nous, pas besoin la différence on a grandi dedans x2 x2 Nous la différence On a grandi dedans Avec ou sans la France On ira de l'avant Au 9ème y'a Wei Nak famille vietnamienne Sa mère cuisine halal pour que tout le monde mange ses nems Au 10ème y'a un squat de tanges de roumains Aidés par ceux du 11ème italiens, cap-verdiens Au 12ème y'a Rachid le tounzi il est ouf ! Son rêve dans son T3 installer un jacuzzi Ici on fait tous partie du même milieu Tous dans la merde donc on fait ce qu'on peut On peut parler, raconter tout ce qu'on veut Tous dans la merde on fait comme on peut Nous, on blablate pas sur la tolérance Nous, on la vit au quotidien nous c'est notre France Bienvenue chez les pauvres et bienvenue chez les fous Le seul endroit en France où les gens viennent de partout Alors que chez les riches ils rêvent de rester entre blancs... Nous, la différence on a grandi dedans x4 x2 Nous la différence On a grandi dedans Avec ou sans la France On ira de l'avant</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lille ma Médina</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Imagine, un matin, la ville de Lille Sept heures sonnent ce matin, en ville de Lille J'ai dix-sept ans, j'arrive ici en 1964 Une valise à la main, toujours prêt à me battre En descendant du bateau ils m'demandent de changer d'nom Mais j'leur dis J'm'appelle Mohamed, pas Stéphane et j'dis non! J'suis à la mine, zebda dans la chicorée Noire est ma mine, on fonctionne au salaire et à la prime Entre les ch'tis, le polac, drôle de langue qu'on m'baragouine On vit dans des baraques pour une France qui nous baratine! Mais c'i pas grave, moi j'suis ici que pour l'oseille Dans c'drôle de pays où il n'y a jamais d'Soleil J'amasse et j'envoie l'flouze dirict au pays Et pis j'rentre et dirict ji me marie J'viens d'Marrakeh, di protectorat En France ils disent y a du taf, di droits et di syndicats J'vas choisir la fille la plus Mgedda p't-être pas la plus Zouina Loin de Lille, Lille la Médina Imagine, un matin, la ville de Lille Sept heures sonnent ce matin, en ville de Lille Moi j'ai pas d'année, j'arrive ici en 1975 Un jour de pluie, ciel gris, sous l'froid qui pince Né dans une de ces cités-dortoirs, quartier où tu saisis très tôt où sont les nécessiteux À la maison on parle l'arabe, en dehors le français J'suis le fils de Mohamed, à l'école, faut toujours que j'sois le premier Ma mère aurait voulu qu'j'sois docteur Je suis l'ainé, tu vois, donc j'ai pas l'droit à l'erreur Mais savait-elle comment on nous parlait dehors J'm'appelle Hicham et pas Stéphane, voilà c'qui dérange les porcs Mais savait-elle comment mes potes partaient dans le haram Que tout autour s'écroulait, que j'pouvais pas trouver le salam J'ai eu d'la chance, j'suis passé au travers du filet J'me réfugiais dans la zic pour pas dealer J'choisirai p't-être pas fille la plus Zouina Mais elle sera de Lille, Lille ma Médina Imagine, un matin, la ville de Lille Sept heures sonnent ce matin, en ville de Lille J'm'appelle Tarek, j'naîtrai plus tard à Lille Mon père c'est Axiom, un rappeur dans les années bissextiles Il est beur comme il aime pas qu'on dise Moi j'suis son fils et j'serai docteur ouais, quoi qu'ils en dise Paraît qu'c'était dur avant, que j'ai grandi dans l'confort Que maintenant c't'avec les slaves que les gens jouent les porcs Pour le taf, ils sont arrivés en masse de l'Est Maintenant c'est vrai, les gens les craignent comme la peste En vérité moi j'suis Français, je m'sens pas concerné Ils ont qu'à travailler et arrêter d'faire chier Hein, j'suis en privé, j'travaille bien à l'école, loin du haram Mon père n'a toujours pas trouvé le salam Moi quand j'serai grand, je m'barrerai loin d'cette ville D'son ciel gris, d'sa pluie, à mille lieues, mille! Et j'choisirai la fille la plus Zouina Loin de cette maudite ville, Lille la Médina! Imagine, un matin, la ville de Lille Sept heures sonnent ce matin, en ville de Lille</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ludo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1er coupler A mon rey Ludo Hier, j'ai perdu un repère, ça aurait pu être ton frère. Guerre , à l'heure où je te parle je ne peux qu'être sincère. J'ai plus que des flashbacks, du poids dans le backpack, Y m'reste plus que tes blagues, mon poto devient un hashtag. Je repense à nos premières scènes, tu rappais avec Charden, Ultime paradoxe, tu disais que le monde en valait bien la peine Des hauts, des bas, des hauts, des hauts, des bas , Tu rappais ce morceau, préférais les jeux de mots aux mauvais débats. Amateur de rhum, de soul funk, de foot et de fleurs, Tous ceux qui t'ont connu peuvent témoigner de ta bonne humeur. Pépite d'amitiés depuis le lycée, tu sais, t'avais raison avec ses shab à coté, on voit moins le temps passé. Je lève mon verre à ton parcours wesh wesh mon type , À tous les anges qu'on a perdu à la Belle équipe. Héros en face de cas lâches, un jour d'anniversaire, Ce sont bien nos morts dans leur putain de guerre Refrain Ca fait plusieurs jours que je n'arrête pas de pleurer, Seul dans mon coin j'essaie simplement d'oublier Ça fait plusieurs nuits que je passe à ruminer, Mon pote est un héros à la peau trouée Ca fait plusieurs jours que je n'arrête pas de pleurer Seul dans mon coin, j'essaie simplement d'oublier Ça fait plusieurs nuits que je passe à ruminer Mon pote est un héros à la peau trouée 2eme couplet Quand j'ai reçu ce coup de fil, j'avais déjà compris La voix d'Hakim au téléphone quand il me l'a appris. Comment te dire tout ce que j'ai ressenti ? L'impression que les murs s'écroulaient sur ma vie. Le bal des images et la colère, mes molaires Qui se serrent devant l'arbitraire les prières ? Qui a tenu le gun ? Qui a tué ton frère ? Qui a fabriqué ce gun ? Qui est le commanditaire ? Qui comprendra cette peine ? Raflé dans la quarantaine, Akhi mon amour a la haine, devant ma peine, l'horreur est à l'antenne. Vendredi 13 sans week-end, c'est la nuit du croque-mitaine. Charonne les lumières s'éteignent, Charogne est leur mythème. Quand c'est injuste, c'est injuste, tu perds un être cher. Le temps devient vétuste. Dieu lui-même en est trop triste. Ils ont pris cher. Le fiel dans la tête ou le buste, Ludo, contre la balustr', aurait dit aux rustres je te paye un verre, fais pas le fruste, T'as manqué d'amour, je veux bien t'aider car je sais, je comprends combien la vie est injuste . Je lève mon verre à ton parcours wesh wesh mon type , À tous les anges qu'on a perdu à la Belle équipe. Excusez-nous de nous aimer, de ne pas nous taire, Ce sont bien nos morts dans vos putains de guerres Refrain Ca fait plusieurs jours que je n'arrête pas de pleurer, Seul dans mon coin, j'essaie simplement d'oublier Ça fait plusieurs nuits que je passe à ruminer, Mon pote est un héros à la peau trouée Ca fait plusieurs jours que je n'arrête pas de pleurer, Seul dans mon coin, j'essaie simplement d'oublier Ça fait plusieurs nuits que je passe à ruminer, Mon pote est un héros à la peau troué Ca fait plusieurs jours qu'on n'arrête pas de pleurer, Seuls dans notre coin ont essaie juste d'oublier Ça fait plusieurs nuits que l'on passe à ruminer, Les nôtres sont des héros à la peau trouée1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Macha’ Allah</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Comme on dit chez moi, incha'Allah Qui vivra verra, macha'Allah Comme on dit, incha'Allah Inch inch inch inch inch inch, incha'Allah Comme on dit chez moi, incha'Allah Qui vivra verra, macha'Allah Comme on dit, incha'Allah Mach mach mach mach mach, macha'Allah Mais putain c'est quoi ça? Ça, ça c'est du bledkick! Mais putain c'est qui ça? Ça, ça c'est du Razik! Pas partie d'ceux qui s'inventent des vies cinématographiques Ils dansent avec le diable mais n'connaissent pas un pas d'la chorégraphie J'ai tendance à accuser c'est comme une maladie Mais y en a un seul qui puisse me juger j'suis sûr que tu vois c'que j'veux dire J'suis là car il paraît qu'j'suis haut placé sur le graphique Donc j'me dois de représenter Lille-Fives sur un sample arabique Merde! Encore un truc qui va pas plaire aux anti-bicots J'suis la définition détermination, regarde dans l'dico On s'différencie d'ceux qui parlent d'alcool, drogues et cul Qui passent leur temps à raconter des choses qu'ils n'ont pas vécues Yeah, Raz est mon blaze, Lille-Fives j'porte le blason Norside tu peux pas test, ceux qui nous freinent, nous les gazons Préparez mon trône j'arrive, incha'Allah Déter sur l'album d'Axiom, macha'Allah Comme on dit chez moi, incha'Allah Qui vivra verra, macha'Allah Comme on dit, incha'Allah Inch inch inch inch inch inch, incha'Allah Comme on dit chez moi, incha'Allah Qui vivra verra, macha'Allah Comme on dit, incha'Allah Mach mach mach mach mach, macha'Allah Fouadri, celle-là est pour tous les dreiri Du quartier la Ouma, qu'ils soient Khral ou Gaouli Qu'ils soient Chnow, Pologne, Russes ou Arbi Djezeiri, Tounsi et les Maghrebi Et une autre pour les mra les mama Les rielet, les bent, el familia Les Zouinet loin des bpselet Pour les surs qui ont des diplômes on dit bsartkoum Et pour les youyous baraka Allahoufikoum Azoul a makbelia améri famichnour Shalom aux Séfarades présents depuis toujours A mes zrenzren du kebab qui m'nourissent quand j'ai schour Ramsa farenik celui qui veut jeter du shroul Denia Ania Ousma Safia C'est une pour Dreili d'Marrakech et Dreili d'Casa On avance avec nia Incha'Allah Comme dirait H-Kayne Macha'Allah Comme on dit chez moi, incha'Allah Qui vivra verra, macha'Allah Comme on dit, incha'Allah Inch inch inch inch inch inch, incha'Allah Comme on dit chez moi, incha'Allah Qui vivra verra, macha'Allah Comme on dit, incha'Allah Mach mach mach mach mach, macha'Allah Tu voulais nous mettre des bâtons dans les roues Boycotter toute ma ville, parler au nom des miens Mais ici c'est Baix-Rou Tu pensais qu'on allait s'taire Qu'tu sortirais des prods sans qu'on insulte ta mère Mais c'est la Norside Backeur, mais j'me dois de tout déballer Faire swinguer l'instru style c'est du chawi décalé Peace à tous les fils de qui voudraient m'égaler J'suis là, je suis là, je suis le bougna qui traumatise ton chalet Réta! Pourquoi tout l'monde se met à crier Ax! J'crois qu'ce soir c'est à mon tour de briller Réta! Changer de style, mais j'ai peur de vriller Le Roubaisien est né mais seulement pour plier Ah ouais, moi c'est Réta, descendant des fils de Hassawa Roubaisien pour l'Etat, Algérien de Annaba En attendant l'album Incha'Allah Et comme on dit chez moi, macha'Allah Comme on dit chez moi, incha'Allah Qui vivra verra, macha'Allah Comme on dit, incha'Allah Inch inch inch inch inch inch, incha'Allah Comme on dit chez moi, incha'Allah Qui vivra verra, macha'Allah Comme on dit, incha'Allah Mach mach mach mach mach, macha'Allah</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ma lettre au président</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Monsieur le Président Avec tout le respect que je dois à votre fonction Je vous demanderais un peu d'attention Je me présente à vous en tant que citoyen Sain de corps et d'esprit, en pleine possession de mes moyens À l'heure où je vous parle, dans le pays le couvre-feu résonne Je fais appel à l'article 19 de la déclaration des droits de l'homme Sans étiquette, je ne jugerai que vos actes D'avance veuillez recevoir mes excuses les plus plates Monsieur le Président Je vous fais part de ma grande indignation Face aux événements, comprenez ma position Je suis français, ai grandi dans les quartiers populaires Mes grands-parents ont défendu la France pendant la guerre Mes parents eux aussi l'ont reconstruite cette république Rappelez-vous ces ouvriers qu'on a fait venir d'Afrique Et Leurs enfants ignorés par le droit du sol Citoyens de seconde zone, de la naissance à l'école J'accuse trente ans de racisme et d'ignorance La répression sans prévention en France J'accuse votre politique, vos méthodes archaïques La centralisation, la défense unique de la loi du fric Au lieu de rassembler car tous français Vous n'avez fait que diviser, laissant l'extrême droite avancer Monsieur le Président Ne le prenez pas comme une offense Mais moi aussi je crois en la démocratie de France Je crois en la république, la vraie Car c'est le rêve du peuple et des opprimés Colonisation, chômage, et précarité Ont engendré violence, inégalités La Discrimination à l'embauche, à l'emploi, cela va sans dire Provoque la fuite des cerveaux, laisse une jeunesse sans avenir Est-ce un hasard si votre ministre séduit l'extrême droite ? Ces gens qui auraient livré la France sans jamais combattre Monsieur le Président Je vous écris une lettre, une lettre que vous lirez peut-être Monsieur le Président, je vous écris une lettre Dans les rues, la sixième république vient de naître Monsieur le Président je vous écris une lettre Je me présente à vous pacifiquement Monsieur le Président je vous écris une lettre Ma lettre au président Monsieur le Président je vous écris une lettre Peut-être ferez-vous preuve de compréhension Monsieur le Président je vous écris une lettre La sixième république attend votre démission Monsieur le Président Tout ne peut être de votre seul chef Je le comprends même si je formule mes griefs Votre gouvernement plonge le pays dans le chaos Incapable de discernement, incapable de vents nouveaux Le peuple a besoin de solutions, non de mensonges Liberté, égalité, fraternité n'est pas un songe Incapable de protéger nos policiers, nos enfants D'un affrontement qui restera sans précédent Nous sommes l'avenir, en notre cur le plus beau des rêves Pacifiquement, la sixième république en est la sève La république a besoin dE nouveau vent Celui de l'espoir, du cur, un vent plus tolérant Monsieur le président, votre ministre instaure la terreur Et l'histoire dira bientôt que ce fut une erreur Où est passé cet humanisme qui a fait la grandeur du pays ? Est-il dans la rue ou dans ces treillis ? Le peuple d'en bas ne veut pas d'école en apprentissage Mais plus d'égalité des chances et plus de partage Monsieur le Président de la peur est née la haine Et les luttes politiques sont loin des valeurs républicaines La France est un idéal qu'il faut sans cesse bâtir Dans l'honnêteté, la transparence, l'altruisme et dans l'avenir Marchons, marchons, vive la France, oui Mais dans la paix et dans le respect des différences Monsieur comment aurait-on pu faire mieux? Il aurait déjà fallu moins attiser le feu Monsieur le Président, je vous écris une lettre La sixième République est en train de naître Monsieur le Président je vous écris une lettre Je me présente à vous pacifiquement Monsieur le Président je vous écris une lettre Ma lettre au président Monsieur le Président je vous écris une lettre Peut-être ferez-vous preuve de compréhension Monsieur le Président je vous écris une lettre La sixième république attend votre démission Monsieur le Président Vous remerciant de votre attention Veuillez agréer mes sentiments les plus distingués Adieu1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ma musique</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>La zic, j'arrive j'me pose sur son beat yo Le son je craque pour mes arbis mes négros Demande aux frères, la zic c'est toute ma vie La réussite j'y crois, je la veux, je la prie J'bosse tous les jours comme un fou Le rap c'est d'la merde, le hip-hop est à nous J'kiffe les voyages, les femmes, les grosses caisses Mes proches, dans mes poches voir toujours des liasses Mets-moi du son, et j'me mets à danser Depuis l'enfance c'est ça comme et rien n'a changé Funk, happy crunk, rap ou dancehall J'rap, mes pas font trembler l'sol T'as vu tout ça? Bah tout ça c'est mes tripes Touche pas à ma zic ou c'est moi qui t'étripe Tant d'amour, tant de pleurs et de joie La musique dans ma vie, j'aime ça Tant de rage, l'amitié j'y crois Dans ma musique Pas matérialiste, mais j'suis pas, pas bête L'argent est l'meilleur esclave, et le pire maître Le compte est vide comme le frigo Y a plus qu'la zic pour m'réchauffer, quel nigaud La larme à l'oeil devant le goût du pain sec Mais pour gagner cette longue partie d'échecs Le succès, j'ai su qu'c'était pas la reconnaissance Tu m'as déçu si tu parlais sans connaissance Des causes, des soucis, moi j'ai la zic comme essence J'ai la danse dans l'sang et j'braille depuis ma naissance La zizic m'a aidé, j'vais pas t'la jouer gangster Mais j'vais pas dire à mes tchios de mettre des gants, s'taire Face aux cons, j'mérite qu'on m'mette un coup d'Kärcher Mais mes mots comptent dans un monde en jachère Assumer la tune pour nous c'est existentiel Monter l'exemple pour nous reste essentiel Écrire, tant qu'écrire est nécessaire L'amour de la plume, des mots logés dans les viscères Écrire face à soi-même tant qu'on est vivant C'est vital comme survivre pour un survivant J'pose pour le groove, j'trouve ça pas grave Ouvre bien tes oreilles prends le moove et bave Bof, diront les beaufs qui voient pas qu'on bosse Mais face à la critique, il faut pas qu'on baisse La garde, alors regarde bien, écoute bien Et dis-moi si ça fait du bien Pas d'faux débats sur les faux débits J'laisse ceux qui débutent s'poser sur des beats Bon tu captes le délire c'est pas un délit Dis-le si tu veux croupir sans laisser d'délai Vas-y bouge de là, tu vois c'est de l'art On veut bouger de là, on rêve de dollars Kheper aime casser les stéréotypes Les stéréos flippent Bouge-toi si tu kiffes C'est juste pour le fun, viens chercher ta baffe MK, MK, respecte le taf Écrire, tant qu'écrire est nécessaire L'amour de la plume, des mots logés dans les viscères Écrire face à soi-même tant qu'on est vivant C'est vital comme survivre pour un survivant</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Média, média</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Média, média, média, quand la presse rime avec stress Média, média, média, quand la pub te presse ou t'oppresse Média, média, média, quand la télé rime avec fêlé Média, média, média, quand les médias sont zélés, que le pacte est scellé Dernier scoop, unetelle et son style à la Betty Boop Dernière coupe, promotion de la dernière soupe Culte de la futilité de la personnalité Eloge à la beauté, éloge à l'infidélité Comment séduire un mec en cinq secondes T'as qu'à t'pencher ou te teindre en blonde Comment perdre 80 kilos, facile t'as qu'à larguer ton mec Qui lui-même, c'est tendance, pourra se faire grec Sur le papier glacé, on vend du désir et d'l'envie On dit qu'c'est du rêve en réalité, c'est d'l'ennui On fabrique des idoles, des icônes, des demi-dieux Modèles jamais malades, modèles jamais vieux Accros à la presse à ragots, ados prêts à la sodo La tendance de l'été sera le sexe crado Et en cadeau, pour le badaud La culotte rétro de Brigitte Bardot Média, média, média, quand la presse rime avec stress Média, média, média, quand la pub te presse ou t'oppresse Média, média, média, quand la télé rime avec fêlé Média, média, média, quand les médias sont zélés, que le pacte est scellé Paraît qu'untel s'tape unetelle qui s'tape untel qui s'tape unetelle Mais untel a grillé unetelle dans les bras d'untel Il doit bien s'emmerder le commun des mortels Si t'arrives à suivre, t'as gagné des sonneries pour ton tel Page 50 Vierge, c'est votre semaine Le prince charmant est là, saisissez l'aubaine Poissons, surfez sur la vague, réussite au boulot Attention à ne pas couler, vous êtes au bout du rouleau Vingt ans, Jeune et jolie, et la classe Soyez objet, soyez femme, soyez pétasse Quarante ans, le tournant, y est temps de prendre un amant Et l'dernier portable à la mode avec le grand écran Homme arrêtez de fumer en 3 jours Virez votre femme, pas assez glamour Comment déambuler sur les plages, pour plaire aux minettes Faites de la muscu, sortez les pépètes Média, média, média, quand la presse rime avec stress Média, média, média, quand la pub te presse ou t'oppresse Média, média, média, quand la télé rime avec fêlé Média, média, média, quand les médias sont zélés, que le pacte est scellé Entre deux encarts, philosophie d'comptoir Histoires de serial killer et portraits de stars Dernière paire de shoes une barre et ça repart J'en ai bouffé dix, et j'ai fini gros lard Foule sentimentale Hold-up mental Y a plus d'étoiles dans l'Ciel des crève-la-dalle Lâchez-vous mais souriez, vous êtes filmés Apaisez-vous, vous êtes libres, entre guillemets Une crème qui rajeunit les femmes de cinquante ans Et le yaourt qui leur donne le corps de vingt ans Matraquage de messages et de slogans Je zappe et je mate les présentateurs arrogants C'est mon choix Ça se discute Combien ça coûte? J'suis dans le camp des fortes têtes, sans aucun doute Trop d'spectaculaire, de talk-shows sous-évolués Après Super Nanny mon cerveau est pollué Média, média, média, quand la presse rime avec stress Média, média, média, quand la pub te presse ou t'oppresse Média, média, média, quand la télé rime avec fêlé Média, média, média, quand les médias sont zélés, que le pacte est scellé</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Momo</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Momo disait tout l'temps qu'un jour il réussirait Qu'il en avait assez, qu'un jour d'ici il se tirerait Loin d'cet enfer, loin d'son deux pièces C'est dans un pays chaud que l'attendait sa princesse Momo des fois sur un coup d'tête partait en solo Le jour pizzaïolo, le soir cambrio Rêve de cinéma, il habiterait lui et sa famille Rêve au pro forma, face à la mer, avec ses amis Momo en avait marre des petits boulots Il se laissait parler quand ses lèvres se posaient sur le goulot Et sur le sol des larmes tombaient après les regrets Il criait vous verrez, un jour, vous verrez Momo, maintenant qu'ton corps gît Momo, que sur ton corps c'est l'orgie Momo, maintenant qu'ton corps gît Le monde s'en porte mieux, aux infos ils l'ont dit Momo se sentait libre sur son booster Lui, c'qu'il aimait, c'est semer les keufs et emmerder les 'steurs Il rêvait d'fortune, intérim, vente de demi Il avait pas peur de la zonz, moins encore de la semi C'qu'il aurait kiffé, c'est faire le coup du siècle Plus jeune, il disait j'serai docteur d'un air espiègle Je l'revois me disant un jour tu verras Un jour j'serai blindé, avec moi, je t'emmènera... Mais t'as vu, la vie te dicte comment faire Il rêvait d'Paradis mais tous ses actes l'emmenaient en Enfer Il avait la tête dure, jamais il écoutait Il voulait tellement s'faire entendre qu'il finit par la fermer Momo, maintenant qu'ton corps gît Momo, que sur ton corps c'est l'orgie Momo, maintenant qu'ton corps gît Le monde s'en porte mieux, aux infos ils l'ont dit En fait, c'était l'gars qu'avait la gueule d'aucun emploi Pas un bandit mais comme tout l'monde, il ignorait la loi Fidèle à son rang, à lui-même, à l'ordre des choses Lui qui comme Piaf n'a eu que la vie morose Et puis un jour, t'as sorti la grosse caisse La sape, les baskets, et une meuf avec de grosses... Et puis t'es devenu trop gourmand, t'es resté là, finalement L'argent sale te donnait trop d'tourments Momo, je regarde les voisins qui jubilent La flicaille débarrassée de leur jouet débile Ce vieux qui t'crache dessus qu'on est tous les mêmes Le crime ne paie pas sauf pour les grands du système Momo, maintenant qu'ton corps gît Momo, que sur ton corps c'est l'orgie Momo, maintenant qu'ton corps gît Le monde s'en porte mieux, aux infos ils l'ont dit</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ô Mama</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ô Mama, j't'ai pas vue vieillir C'est fou c'que le temps passe vite, on a beau dire Ô Mama, j't'ai pas vue vieillir Excuse-moi si je t'ai fait souffrir Ô Maman, comment te le dire autrement qu'en rappant? C'est c'que j'fais de mieux depuis l'âge de mes 15 ans Une blessure a grandi en moi secrètement Je supporte pas de voir le temps marquer ton visage Ô Maman, Mama, je repense à tous ces moments Les larmes viennent doucement mais comment faire autrement? Le cur écorché, marqué par les regrets Que de disputes, de bons moments qu'on a manqué Ô Maman, Mama, dis-moi que t'es fière de moi Ô Mama, dis-moi qu'tu m'aimes autant que moi Mama dis-le moi, dis-le moi, à Méma, à Méma Ô Mama, j't'ai pas vue vieillir C'est fou c'que le temps passe vite, on a beau dire Ô Mama, j't'ai pas vue vieillir Excuse-moi si je t'ai fait souffrir Maman j'sais qu'pour toi ça a pas été facile T'as quitté le pays, laissant derrière la famille, tes racines Je sais qu'tu voulais pour nous c'qu'il y avait de mieux Mais on peut pas tout prévoir Maman, tu l'as vu de tes yeux Maman j'me rappelle des files des Restos du Cur Le chômage de Papa, le Palais d'justice, les frayeurs Les dettes, les huissiers et les profs pas contents Tu as toujours fait front, tu t'es battue, je le sais Maman Mama, je sais qu'tu comprends pas grand-chose à mes choix Mama, à ma musique et à ma voie Ô Mama, dis-moi juste que t'es fière de moi À Méma, à Méma... Ô Mama, j't'ai pas vue vieillir C'est fou c'que le temps passe vite, on a beau dire Ô Mama, j't'ai pas vue vieillir Excuse-moi si je t'ai fait souffrir Ô Maman, qu'est-ce que j'donnerais pour revenir en arrière J'étais rongé par les espoirs de gloire, les rêves, les chimères Tu sais ici, ça marche comme ça Le stress, les insomnies On court partout, on oublie On oublie même les amis Mama, je vois que le temps passe Les griffes sur les photos jaunies Y a rien qui reste en place Les saisons défilent, des amours qui trépignent Des amitiés sur le fil et la vingtaine qui se débine Mama, je sais qu'la vie se termine comme ça Mama, qu'y a pas d'autre issue, pas d'autre choix Mama, que Dieu sache que je n'accepte pas À Méma, à Méma... Ô Mama, j't'ai pas vue vieillir C'est fou c'que le temps passe vite, on a beau dire Ô Mama, j't'ai pas vue vieillir Excuse-moi si je t'ai fait souffrir</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Prenez Bien Soin De Vos Proches</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elle était la plus gentille de toutes les mamies Toujours souriante, rassemblant autour d'elle la famille C'était une femme âgée dont les rides sourient Notre peu d'Soleil, quand on trouvait ce monde pourri Ouverte, elle ouvrait sa porte à tous sans juger Mes amis étaient les bienvenus, jamais elle les préjugeait Hadja, j'espère que là-haut on prend soin d'toi Ici, tu nous manques, mais j'me souviens d'tout C'était la plus tolérante des musulmanes Une grand-mère accueillant tout le monde, même les profanes La paix dans son âme, elle respirait la bonté Pour moi c'était la joie, même quand le temps lui était compté Parfois la mort joue avec nous, maladie après maladie Tant qu'à la fin, Hadja souhaitait le répit J'en veux à la Faucheuse de lui avoir infligé tant de souffrances Elle souhaitait mourir au pays plutôt qu'en France Prenez bien soin d'vos proches Car la vie passe trop vite Quand ça arrive, c'est trop moche T'as dû voir, hein, ça va trop vite ! J'ai vu un gars planter un gars en plein cur Une larme sur la joue d'une mère dans la douleur J'ai vu une gamine à mes pieds tombée du haut des blocs Des ambulanciers impuissants, des parents qui débloquent Rachid dans une baignoire, une overdose dans les veines Le cur de sa mère pour la vie dans la peine J'ai vu la haine s'immiscer dans un couple L'homme briser la femme, partir après les coups Pas loin d'chez moi, pour une cigarette Un racket et c'est toute une vie qui s'arrête Un photographe à la trentaine se pend dans son labo Hamid, mort sur le périph de Paris en moto Riad travaillait, Riad devait s'marier Riad Hamlaoui mort sous les balles d'un policier Émilie, vingt-trois ans, prise au piège par un incendie On mérite jamais sa mort, voilà c'que j'en dis Prenez bien soin d'vos proches Car la vie passe trop vite Quand ça arrive, c'est trop moche T'as dû voir, hein, ça va trop vite ! Trop d'temps perdu par nos proches en prison Pas voir son môme grandir, pas voir défiler les saisons Tant d'gens en ont rien à foutre de leurs parents Les laissent crever tandis qu'la canicule les prend J'ai vu des vieillards, seuls, dans un hospice Les yeux se rappelant tandis que la fin s'esquisse Le dernier souffle de Hadja était pour ses enfants Jusqu'au bout les appelant, mais rares sont ceux qui ont été présents Une pensée pour toutes les mamies qui vivent seules dans leurs grands appart' Regardant l'horloge et la fin qui veut abattre ses cartes Hadja, j'espère que là-haut on prend soi d'toi Ici, tu nous manques, mais j'me souviens d'tout La mort fait réfléchir, la mort est un phare Faut faire les choses avant car après il est trop tard Prenez bien soin d'vos proches car la vie passe trop vite T'as dû voir, hein? Ça va trop vite! Prenez bien soin d'vos proches Car la vie passe trop vite Quand ça arrive, c'est trop moche T'as dû voir, hein, ça va trop vite ! Hadja, tu nous manques... mais j'me souviens d'tout Grands-pères, vous nous manquez... Émilie, Rachid, Ryad, Hamid, Sly, ici on pense à vous</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Samahni</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ah, ah ah ah ah ah Sahmani... Ah, ah ah ah ah ah Sahmani, Sahmani... Ouria, dix ans, dans les rues de Casablanca Sniffe de la colle à rustine, fait les poubelles pour en-cas Gamine, le corps rongé par la vermine Maline, son visage imprime le fond de ma rétine Enfants des grandes villes, elle a quitté le foyer Dans la pauvreté, une bouche à nourrir pèse sur le loyer Survèt' sale et troué, pourtant si douée Enfance bafouée, nageant dans un avenir sans bouée Boris, cinq ans, dans les rues de Moscou Un vrai petit bout d'chou qui vit dans les égouts C'est un grand gaillard, cigarette à la bouche Enfant des rues, débrouillard, gare à celui qui l'touche Protégé par son frère Igor, onze ans Amoureux, dépucelé par Anouchka, douze ans La rue c'est dur, la rue c'est froid, la rue c'est crevard Alors Boris crèvera d'une pneumonie sous un boulevard Ah, ah ah ah ah ah Sahmani... Ah, ah ah ah ah ah Sahmani, Sahmani... Akanksha, six ans, dans les rues de Bombay Ouvrière dans une usine de verre recyclé Son frère, neuf ans dans une fabrique de briques Tous les deux pour dix roupies respirent les vapeurs toxiques Leur sur Abaya, onze ans, a failli être mère Violée par celui chez qui elle faisait les tâches ménagères Akanksha, enfant esclave aux bras brûlés Rêvait de palais dans les rues de Bombay Saree, quatorze ans, née dans une campagne en Thaïlande Enfant prostituée de la clientèle allemande Vendue sur le marché de Rong Bluah Elle et son petit frère Chaofa Yanie, sa meilleure amie, fut envoyée aux Etats-Unis Où elle croise quelques Chinoises et quelques filles de Malaisie Saree vit maintenant près de Khlong Toei Son regard s'est éteint depuis les premières mains qui l'ont souillée Ah, ah ah ah ah ah Sahmani... Ah, ah ah ah ah ah Sahmani, Sahmani... Rafi, dix ans, né en Israël Sa vie est rythmée par les bombes dans le ciel Prêt à défendre sa terre sous les coups de feu Rafi a la peur pour terrain de jeu Aïssa, dix ans, né en Palestine Sa vie rythmée par l'incursion de l'ennemi intime Prêt à mourir en martyre sous les coups de feu Aïssa a la mort pour terrain de jeu Mohana, treize ans, enfant militaire du Congo A reçu une jolie mitraillette pour cadeau Forcé au viol de Fabienne, douze ans Enlevée dans un village, pas loin, par les combattants Il rêve, comme nous tous, d'une vie normale Mais ses nuits sont hantées par le mal Des cadavres plein ses cauchemars Comment oublier quand on a tué à n'en plus pouvoir?</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Si Dieu veut me tester</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Si Dieu veut m'tester, j'relève le défi J'me rappelle ces soirées du quartier C'était l'époque d'la danse, Fila et Bombardier Africa autour du cou, coupe à l'afro On découvrait le hip-hop et pour les filles on était des pros Ces routes qu'on a foulées Coursés par les skins ou les poulets Tous ces moments qu'on a passé à nager pour pas couler Et toutes ces nuits à refaire la vie À rêver d'un autre monde, d'un avenir plus ravi En grandissant, la vie nous montre qui est qui Nous montre qui on est, c'qu'on garde et c'qu'on a acquis Le temps laisse sa marque, écrase nos espoirs, fane nos rêves Les obstacles débarquent et ils boivent toute notre sève Après le raz-de-marée, il reste pas grand-monde sur la berge Si tu survis, tu restes planté là et tu gamberges La vie est un test, si les amis se comptent sur les doigts d'la main Passe-moi les ciseaux, faudra qu'j'm'en coupe quelques-uns Si Dieu veut m'tester, j'relève le défi Mais reste près de moi, car sans toi une balle me suffit Il m'reste pas beaucoup d'photos du passé Quelques unes, jaunies, qu'ma mémoire a ressassées Bordel que le temps passe trop vite Tu t'retournes et c'est grandir que t'as fait trop vite Trop d'honneur à la con et d'fierté mal placée Des curs en glaçon et trop d'mots déplacés Mon Univers se jonche de trop d'ombres, silhouettes méconnues De vies traversées sous un ciel, à tout jamais perdues Trop d'amis qu'la vie a soufflé Écartés d'mon chemin comme une amertume insufflée Si Dieu veut m'tester, j'peux relever l'défi Mais sans les miens j'suis perdu, sans eux, j'péfli J't'ai écrit ami pour la vie, tu dois mal me connaître T'es parti sans un mot, sans laisser une lettre T'auras beau faire, si les amis se comptent sur les doigts Sache que jamais j'pourrai couper celui-là! Si Dieu veut m'tester, j'relève le défi Mais reste près de moi, car sans toi une balle me suffit Depuis l'début, tu m'as suivi dans cette aventure Les yeux fermés, confiant même si ça a été dur Améliorant l'audit, ambiances saines ou malsaines Dans cette région maudite, écumant scène après scène Kamea Axiom, sur tous les podiums Rêvant d'sortir la famille depuis l'premier album Toi qui m'a jamais trahi Présent depuis l'début, qui n'a jamais failli Ça a pas été facile, mais on a insisté Résisté, persisté et MK a existé À toi l'frère que j'ai eu la chance d'avoir Voilà, j'voulais juste te l'faire savoir Et elle, ma béquille quand j'vais mal Ma compagne de tous les jours, stable, même quand l'monde s'emballe Si Dieu veut m'tester, inutile de l'nier Sans leur amour, sans eux, j'aurais déjà plié Si Dieu veut m'tester, j'relève le défi Mais reste près de moi, car sans toi une balle me suffit Merci à tous ceux qui m'ont soutenu jusqu'à maintenant J'ai rien oublié, ma famille, mes potes, la Kafard Team, mon public... À tous ceux que j'ai pu omettre dans le texte mais qui savent... Sans vous, il est pas dit que j'y serais arrivé Merci</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sous mon lit</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>À la naissance, il braillait déjà trop Comme né avec des dents, il avait déjà les crocs Trop maigre, il avait toujours faim Affamé de vie, d'sourires, d'amour, affamé sans fin Peu après, il courait partout avec son ballon Les cheveux mi-longs, le sourire qui en dit long Sur le bonheur d'voir la fierté dans l'regard d'son père Quand il regarde son fils courir sur l'gazon vert Quand t'es tchio y a rien qui compte d'autre que tes parents Pas d'mal, pas d'bien, rien n'est triste, tout est marrant Vint l'jour d'l'entrée à l'école Première blessure, première séparation de ses idoles Premier bisou près du platane Premières bagarres à coups d'tatanes... Et on s'mesure au monde ainsi Car c'est ainsi qu'on grandit, et il dit Sous mon lit, y a des monstres Dans mon lit, y a des monstres Sous mon lit, y a des monstres Sous mon lit... Bientôt le CP en classe B Par cur les vingt-six lettres de l'alphabet Une fleur est née sur le fumier D'un ghetto français au froid minier Mais il court partout comme s'il savait dorénavant Qu'ici la vie ne dure qu'un temps Premier, deuxième, troisième de la classe Faut s'battre, la compétition ne laisse pas d'place Déjà des angoisses au bide Des allers-retours à l'hôpital dans des chambres toutes vides Et du haut d'une grande pièce Une larme coule sur la joue de chaque sieste Le petit, pour sortir de l'hosto Le petit fait semblant d'être costaud Et deux gamins luttent en un pour reconstruire le mal et le bien L'imaginaire devient son seul moyen Sous mon lit, y a des monstres Dans mon lit, y a des monstres Sous mon lit, y a des monstres Sous mon lit... Dehors tous disent qu'il est jovial Mais dedans la souffrance le ronge, il a mal Des troubles troublent son adolescence Croissance tardive, l'adulte n'a pas d'sens Découverte tardive de l'amour Mais ne rien dire de soi, se taire comme toujours Se cacher car la honte nait À comprendre les choses, autrefois dans l'ignorance il se contenait Combien de fois, sa main contre lui À force de se retenir veut lui retirer la vie Le monde en devient opprimant Pour un gamin prisonnier dans le corps d'un grand La vie est belle, mais les gens sont sourds Écoutent ceux qui viennent de loin mais pas les voisins d'leur cour Et le soir, il songe à sa petite île loin de tous les stres-mon Surtout celui qui s'appelle Tonton! Sous mon lit, y a des monstres Dans mon lit, y a des monstres Sous mon lit, y a des monstres Sous mon lit...</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sur un air</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sur un air que je ne connais pas, j'écris nos histoires Sur un air que je ne connais pas, j'écris notre histoire À douze ans, j'me suis mis au rap, j'voulais changer l'monde J'savais déjà que la planète était bien ronde Combien l'espèce humaine pouvait être immonde Mais une autre ère nous attend, je l'entends qui gronde Nous n'sommes que des êtres éphémères sur cette planète Qui mourra à son tour, alors pourquoi tu te la pètes? L'argent a changé nos rapports humains Nous devenons petit à petit les esclaves de l'inhumain On dirait qu'on tire très peu de leçons du passé À l'école, le savoir est bradé sur l'autel du marché Nous sommes nombreux à rêver d'un autre système Où l'on regarderait son voisin autrement qu'avec la haine Il faut en finir avec les logiques de la peur Considérer ses semblables et leur donner le meilleur Si la course à l'argent est la pire arme de destruction Nos plumes, elles, seront les meilleures armes de construction Sur un air que je ne connais pas, j'écris nos histoires Sur un air que je ne connais pas, j'écris notre histoire C'est pas une Rolex qui te rendra plus heureux À force de vivre dans ta Ferrari, tu finiras que peureux Aveugles du monde, de la vie qui s'offre à nous Quelle chance d'être vivant, mais dites-moi, vous, qu'en ferez-vous? Et si ce texte vous paraît si simpliste Demandez-vous pourquoi vous êtes si pessimiste Si ces idées vous sont si familières C'est que vos ancêtres se sont battus pour abattre les barrières Je n'suis pas le seul à porter cette vision Même si c'est si loin de ce que raconte la télévision Je revendique le droit à l'échec, à la sensibilité Dans un monde qui laisse peu de place à la naïveté Voilà ce qui nous tue, voilà ce qui nous guette Ce mauvais jeu de la concurrence entre les êtres Si la course au pouvoir est la pire arme de destruction Nos voix, elles, seront les meilleures armes de construction Sur un air que je ne connais pas, j'écris nos histoires Sur un air que je ne connais pas, j'écris notre histoire Du bling-bling, des costards et parler de paix Alors qu'ils vendent des armes de guerre dans le monde entier Il serait temps de stopper l'escalade de l'armement Le bon sens au service d'la réflexion, du développement Quelle indécence, les abus de la bulle financière À l'heure où la famine décime des familles entières Aujourd'hui je considère qu'c'est un crime contre l'humanité De laisser faire la faim dans le monde et la pauvreté Il faut en finir avec le snobisme de la capitale Le racisme et les discriminations raciales Et je rends hommage aux bons parents Le premier acte responsable est de s'occuper de ses enfants Sur un air que je ne connais pas, j'ai écrit mon histoire Si ces mots te parlent, quelque part C'est que quelque part, c'est aussi ton histoire Sur un air que je ne connais pas, j'écris nos histoires Sur un air que je ne connais pas, j'écris notre histoire Et si ce texte te paraît simpliste Demande-toi pourquoi tu es si pessimiste Nous ne verront peut-être pas le monde dont on rêve de notre vivant Mais nos enfants le subiront... Le sens, résister, renoncer à la violence, la guerre On a tous un pouvoir Ne pas tolérer l'inacceptable La famine, l'incompréhensible... La subordination, les inégalités Restez insoumis, dans la vigilance Une seule planète, une seule espèce Autre chose est possible Sur un air que je ne connais pas, j'ai écrit mon histoire, ton histoire Si ces mots te parlent, quelque part C'est que quelque part... Sur un air que je ne connais pas, il faut garder espoir C'est ça le hip-hop</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Toujours debout</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Je suis toujours debout, je suis toujours vivant Plutôt mourir qu'être à genoux, moral de combattant Je suis toujours debout, je suis toujours vivant Plutôt mourir qu'être à genoux, journal d'un résistant Mon décor, la désillusion, des embrouilles à la con Les mêmes gueules en télévision On parle d'unité mais je ne vois que de l'inquisition On focalise sur c'qui divise alors qu'on s'sent tous en mission Y a des rhobsistes qui veulent leur place aux dépens des frères Des assos qui reçoivent des sub' en insultant nos pères Beaucoup parlent de social mais très peu sont sincères Normal qu'au final tu t'demandes à quoi tout ça ça sert Tu veux t'élever? T'attends pas au respect La première chose que tu dois apprendre est d'être circonspect J'ai appris la rage et la nage dans le bassin des requins Tenace comme aucun, Hicham aka berbère marocain Je suis toujours debout, je suis toujours vivant Plutôt mourir qu'être à genoux, moral de combattant Je suis toujours debout, je suis toujours vivant Plutôt mourir qu'être à genoux, journal d'un résistant Je rappe depuis gamin, gare à mes crocs de canin La vie est une garce qui préfère les bâtards, les couvre de câlins Difficile de réussir quand t'as le cur pur À croire qu'la life préfère coucher avec des ordures Là d'où je vient on sait très bien perdre son temps Des boulets aux pieds, des faux plans et très peu de bon temps Les gamins rêvent d'être millionnaires, veulent de la monnaie Donc souvent à la prison ils sont abonnés Petit bisou à ceux qui rêvaient de me descendre Méfiez-vous du phénix qui renaît vite de ses cendres Avis au rhadars, ils ont commis une erreur Elle s'appelle Axiom aka Hicham aka Il est l'heure Je suis toujours debout, je suis toujours vivant Plutôt mourir qu'être à genoux, moral de combattant Je suis toujours debout, je suis toujours vivant Plutôt mourir qu'être à genoux, journal d'un résistant A cur ouvert pour mes srabs au trou Respect à mon crew MK, Belfort, Lille Sud et tout A la Norside ou à BXL ou Casa fou 93 Clichy-sous, 59 Lille zoo Ouais doucement j'ai changé les données J'comprends pas qu'tu en sois étonné Et même quand la vie me riait au nez J'ai très vite appris à me relever C'est pas seulement les illuminatis Dès qu'y en a un qui monte, il a droit à toutes les calomnies Vas-y crache tes saletés en loucedé sur les forums Mon album c'est Axiom, aka des paroles tah les bonhommes! Je suis toujours debout, je suis toujours vivant Plutôt mourir qu'être à genoux, moral de combattant Je suis toujours debout, je suis toujours vivant Plutôt mourir qu'être à genoux, journal d'un résistant Je sais d'où je viens Qui je suis, où je vais Je sais d'où je viens Qui je suis, où je vais Je suis toujours debout</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tout est normal</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Celle-là, elle est pour tous les traders, les boursiers Les millionnaires, les milliardaires Les grands patrons, les imposés sur la fortune Elle est pour tous les blindés Écoute, c'est normal Ouais c'est la merde tout est normal! Y a ceux qui se battent et ceux qui râlent Vu c'qui s'passe niveau mondial J'trouve que je ne m'en sors pas si mal Lundi matin il fait froid J'ai rendez-vous Pôle Emploi Mon avenir un chèque en bois Si c'est pas la zerm', j'vois pas quoi Dans le métro, une amende Putain de contro', j'ai les glandes J'rêve de Soleil et d'oseille, de sourires Je me casse en courant, qu'ils aillent se pendre! J'ai pris l'habitude de gruger, système ABCEFG J'ai fait presque tout l'alphabet Tous les moyens sont bons, obligé Depuis la naissance on me parle de crise J'ai l'habitude, pas de méprise J'étais pauvre avant, maintenant j'RMIse J'ai pas le choix, je relativise Ouais c'est la merde tout est normal! Y a ceux qui se battent et ceux qui râlent Vu c'qui s'passe niveau mondial J'trouve que je ne m'en sors pas si mal Merci la vie d'm'avoir fait mal Ça m'fout la rage et c'est normal Vu c'qui s'passe niveau mondial J'trouve que je ne m'en sors pas si mal J'sais pas pourquoi sur toutes les chaînes Y a que des mauvaises nouvelles Et ça parle toujours que de haine Trop peu, très peu de je vous aime Et ça te parle de République Mais ça détourne les fonds publics Et ça blablate d'identité Z'ont rien à faire, ils font pitié Surtout ne dites pas la vérité La démocratie est en RTT Et des médias qui mythonent, qui bidonnent Parlent mal de la banlieue dans leurs papiers Guerlain fait dans le parfum qui pue Madoff fait dans le placement qui tue Quelle belle époque, Madame Bettencourt On garde le sourire même en bas des tours Ouais c'est la merde tout est normal! Y a ceux qui se battent et ceux qui râlent Vu c'qui s'passe niveau mondial J'trouve que je ne m'en sors pas si mal Merci la vie d'm'avoir fait mal Ça m'fout la rage et c'est normal Vu c'qui s'passe niveau mondial J'trouve que je ne m'en sors pas si mal J'ai voulu manifester J'ai vu des gars tout casser Camouflés, ils jetaient des pavés J'ai rien compris car c'était des policiers Allons enfants de la patrie On ne va jamais rien lâcher N'en déplaise à Sa Seigneurie Fallait surtout pas nous fâcher Certains passent leur temps à geindre D'autres ne se laissent jamais abattre Avant j'passais mon temps à m'plaindre Aujourd'hui j'préfère largement m'battre Paraît que Lille va mal Paraît qu'Paris va mal Paraît qu'la France va mal Bon en gros le monde entier va mal Ouais c'est la merde tout est normal! Y a ceux qui se battent et ceux qui râlent Vu c'qui s'passe niveau mondial J'trouve que je ne m'en sors pas si mal Merci la vie d'm'avoir fait mal Ça m'fout la rage et c'est normal Vu c'qui s'passe niveau mondial J'trouve que je ne m'en sors pas si mal Eh ouais c'est la merde mais tout est normal On a l'habitude Ha ha ha ha ha!</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Un jour sans fin</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Dans la cour de récré, on jouais, t'étais p't-être pas né C'était l'année des billes, des batailles de marronniers Trop débiles, en classe on jouait à poil au nez Tandis que des bâtards de profs nous avaient déjà condamnés Trop con, fallait entendre leurs phrases Eux qui étaient censés aider des gamins que la vie écrase Y a même des profs qui nous on dit qu'on finirait bandits J'en mesure l'impact maintenant que j'ai grandi Les dégâts des mots peuvent faire du mal à vie J'te jure, j'en connais qui en ont fait des maladies Du coup, seul tout au fond d'la classe tu cherches plus à comprendre Vu qu'à longueur de jour, on t'répète que t'es qu'un cancre L'école était une guillotine pour ceux qui avaient la vie dure On nous a éliminés au fur et à mesure La conseillère d'orientation, la pire des enflures Est-ce un hasard si on s'injecte de la pure? Classique, chez moi faire une OD c'était comme dire bonjour On habite la grisaille donc on n'attend pas les beaux jours Le Nord c'est la banlieue de la banlieue de la merde Ici plus personne s'étonnera que les valeurs se perdent Norside, devenu plaque tournante de la drogue C'est l'échec scolaire qui a rendu le shit en vogue Aujourd'hui, les microbes ne jurent que par la CC C'est à se demander si c'manège peut cesser C'est un jour sans fin, qui s'répète sans cesse C'est un jour sans fin, où chacun se blesse C'est un jour sans fin, qui s'répète sans cesse Où chacun s'blesse... Là d'où j'viens, ne pas faire de prison c'est anormal Le chômage ça nourrit mal et réveille l'instinct bestial Y a plus de pauvres que d'riches dans mon entourage Donc rester honnête honnêtement ça demande du courage Le temps passe, mais le monde n'a pas tant évolué On invente des machines mais nos rapports restent pollués Sur Facebook t'as beau avoir plus de 500 amis Si t'es dans la merde c'est tout seul que tu passeras la nuit Sur les chats, les pussycats demandent asv stp On t'as pas dit, SMS pouvait devenir MST Normal, des femmes à poil partout sur les affiches Pour un yaourt, du savon ou même pour vendre des quiches Vision déformée de la femme réduite au rang de pute Ils appellent ça de l'art, je dis que ça s'discute Trop de mecs se croient dans un film de boules Dès qu'ils abordent une minjupe ce sont leurs valeurs qui s'écroulent Je sais de quoi je cause, car je fais partie de cette génération Qui a découvert le sexe par la pornographie Mon premier plan était Mon deuxième, le mensonge et les tourments Bref, du matin au soir, j'entends parler des mêmes histoires Des mêmes embrouilles, des mêmes conneries, des mêmes déboires On tire peu d'leçons du passé C'est à s'demander si ce manège peut cesser C'est un jour sans fin, qui s'répète sans cesse C'est un jour sans fin, où chacun se blesse C'est un jour sans fin, qui s'répète sans cesse Où chacun s'blesse... C'est clair, c'est pas demain la veille que les choses vont changer C'est pas demain que je serai vu autrement qu'en étranger Mon seul problème avec mon identité C'est la manière dont les connards en parlent sur les plateaux télé Ils avancent que nos parents sont démissionnaires Leur seul défaut est de ne pas être millionnaires J'aurais été plus heureux s'ils avaient eu vos salaires N'insultez plus nos parents, ou désormais c'est la guerre! Nous, on s'invente pas des problèmes Si nos jeunes partent en couilles, analysez le système Vous, vos gosses de riches sont tristes et solitaires Délinquants, tellement fragiles que suicidaires On en sait quelque chose, vu qu'on leur revend la drogue Que nos échecs scolaires ont rendu en vogue Finalement, vous voyez bien qu'on est dans le même camp C'est comme l'Afrique, rien ne sert d'parler sans co-développement Le seul communautarisme est celui d'en haut Ouvrez les vannes, des frères meurent sous les préaux Ce pays est en train d'se tuer à force de tout verrouiller Arrêtez les clichés! Commencez par l'Elysée OK, j'me mouille même si la récup n'est pas loin 2005 aussi ça s'en va et ça revient Pour l'instant, obligé d'ressasser C'est à se demander si ce manège peut cesser C'est un jour sans fin, qui s'répète sans cesse C'est un jour sans fin, où chacun se blesse C'est un jour sans fin, qui s'répète sans cesse Où chacun s'blesse...</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Axiom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Axiom</t>
         </is>
       </c>
     </row>
